--- a/raw_data/umd/2023/RL_2023-07-12_SCav.xlsx
+++ b/raw_data/umd/2023/RL_2023-07-12_SCav.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samblackburn/Library/CloudStorage/Box-Box/WI Idea Collaboration Grant Data/UMD Sensor Data/Sensors 2023/07_12_23/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samblackburn/Documents/lshabs/raw_data/umd/2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{966C5B1D-4790-7E4D-A48B-0E902C7FCF9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9052AC83-EB0F-4947-9E97-B17A4F8E131B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{34FD1B1E-D0D7-CC40-AD3D-FF5E02AECCFC}"/>
   </bookViews>
@@ -20,52 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
-  <si>
-    <t>Location Properties</t>
-  </si>
-  <si>
-    <t>Location Name = SCav</t>
-  </si>
-  <si>
-    <t>Location ID = 171c8e67-133f-4eb0-8bd4-534b3291f587</t>
-  </si>
-  <si>
-    <t>Latitude = 46.904717 °</t>
-  </si>
-  <si>
-    <t>Longitude = -91.035283 °</t>
-  </si>
-  <si>
-    <t>Report Properties</t>
-  </si>
-  <si>
-    <t>Start Time = 2023-07-12 11:13:26</t>
-  </si>
-  <si>
-    <t>Time Offset = -05:00:00</t>
-  </si>
-  <si>
-    <t>Duration = 00:01:36</t>
-  </si>
-  <si>
-    <t>Readings = 97</t>
-  </si>
-  <si>
-    <t>Instrument Properties</t>
-  </si>
-  <si>
-    <t>Device Model = Aqua TROLL 600</t>
-  </si>
-  <si>
-    <t>Device SN = 804550</t>
-  </si>
-  <si>
-    <t>Device Model = PowerPack</t>
-  </si>
-  <si>
-    <t>Device SN = 868976</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Date Time</t>
   </si>
@@ -126,7 +81,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="m/d/yy\ h:mm:ss.000"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss.000"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -633,7 +588,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="11" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1014,9 +969,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B6A3F4-A705-B744-B2AF-C49BB1B699D2}">
-  <dimension ref="A1:R119"/>
+  <dimension ref="A1:R98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1040,202 +997,1241 @@
     <col min="19" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-    </row>
-    <row r="7" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-    </row>
-    <row r="13" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>45119.467662037037</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1554.252</v>
+      </c>
+      <c r="C2" s="3">
+        <v>5.6128619999999998</v>
+      </c>
+      <c r="D2" s="3">
+        <v>5.4945059999999997E-2</v>
+      </c>
+      <c r="E2" s="3">
+        <v>6.3749979999999998E-2</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.99863979999999997</v>
+      </c>
+      <c r="H2" s="5">
+        <v>4.1436410000000003E-5</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0.39901340000000002</v>
+      </c>
+      <c r="J2" s="3">
+        <v>17.76877</v>
+      </c>
+      <c r="K2" s="3">
+        <v>0.28763240000000001</v>
+      </c>
+      <c r="L2" s="3">
+        <v>1.2910140000000001</v>
+      </c>
+      <c r="M2" s="3">
+        <v>0.20222570000000001</v>
+      </c>
+      <c r="N2" s="3">
+        <v>0.747</v>
+      </c>
+      <c r="O2" s="3">
+        <v>992.47829999999999</v>
+      </c>
+      <c r="P2" s="3">
+        <v>46.90444591</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>-91.035976959999999</v>
+      </c>
+      <c r="R2" s="3"/>
+    </row>
+    <row r="3" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>45119.467673611114</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1496.556</v>
+      </c>
+      <c r="C3" s="3">
+        <v>5.6224679999999996</v>
+      </c>
+      <c r="D3" s="3">
+        <v>5.4945059999999997E-2</v>
+      </c>
+      <c r="E3" s="3">
+        <v>6.3750210000000002E-2</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.99863979999999997</v>
+      </c>
+      <c r="H3" s="5">
+        <v>4.143656E-5</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0.39968130000000002</v>
+      </c>
+      <c r="J3" s="3">
+        <v>17.768599999999999</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0.2897883</v>
+      </c>
+      <c r="L3" s="3">
+        <v>1.2959609999999999</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0.20374149999999999</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0.747</v>
+      </c>
+      <c r="O3" s="3">
+        <v>992.48239999999998</v>
+      </c>
+      <c r="P3" s="3">
+        <v>46.90444591</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>-91.035976959999999</v>
+      </c>
+      <c r="R3" s="3"/>
+    </row>
+    <row r="4" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>45119.467685185184</v>
+      </c>
+      <c r="B4" s="3">
+        <v>6452.9120000000003</v>
+      </c>
+      <c r="C4" s="3">
+        <v>5.4768739999999996</v>
+      </c>
+      <c r="D4" s="3">
+        <v>5.4945059999999997E-2</v>
+      </c>
+      <c r="E4" s="3">
+        <v>6.3747670000000006E-2</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.99863970000000002</v>
+      </c>
+      <c r="H4" s="5">
+        <v>4.1435849999999997E-5</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0.37173679999999998</v>
+      </c>
+      <c r="J4" s="3">
+        <v>17.769559999999998</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0.25454280000000001</v>
+      </c>
+      <c r="L4" s="3">
+        <v>1.2151449999999999</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0.17896139999999999</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0.747</v>
+      </c>
+      <c r="O4" s="3">
+        <v>992.43439999999998</v>
+      </c>
+      <c r="P4" s="3">
+        <v>46.90444591</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>-91.035976959999999</v>
+      </c>
+      <c r="R4" s="3"/>
+    </row>
+    <row r="5" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>45119.46769675926</v>
+      </c>
+      <c r="B5" s="3">
+        <v>6670.4650000000001</v>
+      </c>
+      <c r="C5" s="3">
+        <v>5.4735259999999997</v>
+      </c>
+      <c r="D5" s="3">
+        <v>5.4945059999999997E-2</v>
+      </c>
+      <c r="E5" s="3">
+        <v>6.3747659999999998E-2</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.99863970000000002</v>
+      </c>
+      <c r="H5" s="5">
+        <v>4.1435869999999999E-5</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.37038850000000001</v>
+      </c>
+      <c r="J5" s="3">
+        <v>17.76952</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0.25361860000000003</v>
+      </c>
+      <c r="L5" s="3">
+        <v>1.213028</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0.17831159999999999</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0.747</v>
+      </c>
+      <c r="O5" s="3">
+        <v>992.43409999999994</v>
+      </c>
+      <c r="P5" s="3">
+        <v>46.90444591</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>-91.035976959999999</v>
+      </c>
+      <c r="R5" s="3"/>
+    </row>
+    <row r="6" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>45119.46770833333</v>
+      </c>
+      <c r="B6" s="3">
+        <v>6888.018</v>
+      </c>
+      <c r="C6" s="3">
+        <v>5.4701769999999996</v>
+      </c>
+      <c r="D6" s="3">
+        <v>5.4945059999999997E-2</v>
+      </c>
+      <c r="E6" s="3">
+        <v>6.3747650000000003E-2</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.99863970000000002</v>
+      </c>
+      <c r="H6" s="5">
+        <v>4.143589E-5</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0.36904009999999998</v>
+      </c>
+      <c r="J6" s="3">
+        <v>17.769490000000001</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0.25269429999999998</v>
+      </c>
+      <c r="L6" s="3">
+        <v>1.2109110000000001</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0.17766180000000001</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0.747</v>
+      </c>
+      <c r="O6" s="3">
+        <v>992.43370000000004</v>
+      </c>
+      <c r="P6" s="3">
+        <v>46.90444591</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>-91.035976959999999</v>
+      </c>
+      <c r="R6" s="3"/>
+    </row>
+    <row r="7" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>45119.467719907407</v>
+      </c>
+      <c r="B7" s="3">
+        <v>7105.5709999999999</v>
+      </c>
+      <c r="C7" s="3">
+        <v>5.4668279999999996</v>
+      </c>
+      <c r="D7" s="3">
+        <v>5.4945059999999997E-2</v>
+      </c>
+      <c r="E7" s="3">
+        <v>6.3747639999999994E-2</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.99863970000000002</v>
+      </c>
+      <c r="H7" s="5">
+        <v>4.1435920000000002E-5</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0.36769180000000001</v>
+      </c>
+      <c r="J7" s="3">
+        <v>17.769449999999999</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0.2517701</v>
+      </c>
+      <c r="L7" s="3">
+        <v>1.2087939999999999</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0.177012</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0.747</v>
+      </c>
+      <c r="O7" s="3">
+        <v>992.43330000000003</v>
+      </c>
+      <c r="P7" s="3">
+        <v>46.90444591</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>-91.035976959999999</v>
+      </c>
+      <c r="R7" s="3"/>
+    </row>
+    <row r="8" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>45119.467731481483</v>
+      </c>
+      <c r="B8" s="3">
+        <v>5931.9129999999996</v>
+      </c>
+      <c r="C8" s="3">
+        <v>5.4002489999999996</v>
+      </c>
+      <c r="D8" s="3">
+        <v>5.4945059999999997E-2</v>
+      </c>
+      <c r="E8" s="3">
+        <v>6.3755129999999993E-2</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.99864039999999998</v>
+      </c>
+      <c r="H8" s="5">
+        <v>4.1439320000000003E-5</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.39087860000000002</v>
+      </c>
+      <c r="J8" s="3">
+        <v>17.765029999999999</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0.48012329999999998</v>
+      </c>
+      <c r="L8" s="3">
+        <v>1.7353620000000001</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0.33756029999999998</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0.747</v>
+      </c>
+      <c r="O8" s="3">
+        <v>992.41340000000002</v>
+      </c>
+      <c r="P8" s="3">
+        <v>46.90444591</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>-91.035976959999999</v>
+      </c>
+      <c r="R8" s="3"/>
+    </row>
+    <row r="9" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>45119.467743055553</v>
+      </c>
+      <c r="B9" s="3">
+        <v>5982.6490000000003</v>
+      </c>
+      <c r="C9" s="3">
+        <v>5.3938189999999997</v>
+      </c>
+      <c r="D9" s="3">
+        <v>5.4945059999999997E-2</v>
+      </c>
+      <c r="E9" s="3">
+        <v>6.3755450000000005E-2</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.99864039999999998</v>
+      </c>
+      <c r="H9" s="5">
+        <v>4.143947E-5</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.39141730000000002</v>
+      </c>
+      <c r="J9" s="3">
+        <v>17.76483</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0.49072270000000001</v>
+      </c>
+      <c r="L9" s="3">
+        <v>1.7598130000000001</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0.3450124</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0.747</v>
+      </c>
+      <c r="O9" s="3">
+        <v>992.41139999999996</v>
+      </c>
+      <c r="P9" s="3">
+        <v>46.90444591</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>-91.035976959999999</v>
+      </c>
+      <c r="R9" s="3"/>
+    </row>
+    <row r="10" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>45119.46775462963</v>
+      </c>
+      <c r="B10" s="3">
+        <v>6033.3850000000002</v>
+      </c>
+      <c r="C10" s="3">
+        <v>5.3873879999999996</v>
+      </c>
+      <c r="D10" s="3">
+        <v>5.4945059999999997E-2</v>
+      </c>
+      <c r="E10" s="3">
+        <v>6.3755770000000003E-2</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.99864050000000004</v>
+      </c>
+      <c r="H10" s="5">
+        <v>4.1439629999999997E-5</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0.39195609999999997</v>
+      </c>
+      <c r="J10" s="3">
+        <v>17.764620000000001</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0.50132220000000005</v>
+      </c>
+      <c r="L10" s="3">
+        <v>1.784265</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0.35246460000000002</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0.747</v>
+      </c>
+      <c r="O10" s="3">
+        <v>992.40940000000001</v>
+      </c>
+      <c r="P10" s="3">
+        <v>46.90444591</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>-91.035976959999999</v>
+      </c>
+      <c r="R10" s="3"/>
+    </row>
+    <row r="11" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>45119.467766203707</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1290.26</v>
+      </c>
+      <c r="C11" s="3">
+        <v>5.2469609999999998</v>
+      </c>
+      <c r="D11" s="3">
+        <v>5.4945059999999997E-2</v>
+      </c>
+      <c r="E11" s="3">
+        <v>6.3753370000000004E-2</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.99864039999999998</v>
+      </c>
+      <c r="H11" s="5">
+        <v>4.1439520000000003E-5</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0.46487539999999999</v>
+      </c>
+      <c r="J11" s="3">
+        <v>17.766190000000002</v>
+      </c>
+      <c r="K11" s="3">
+        <v>1.3206720000000001</v>
+      </c>
+      <c r="L11" s="3">
+        <v>3.672552</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0.92852500000000004</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0.747</v>
+      </c>
+      <c r="O11" s="3">
+        <v>992.4452</v>
+      </c>
+      <c r="P11" s="3">
+        <v>46.90444591</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>-91.035976959999999</v>
+      </c>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>45119.467777777776</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1030.204</v>
+      </c>
+      <c r="C12" s="3">
+        <v>5.2384440000000003</v>
+      </c>
+      <c r="D12" s="3">
+        <v>5.4945059999999997E-2</v>
+      </c>
+      <c r="E12" s="3">
+        <v>6.3753400000000002E-2</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.99864039999999998</v>
+      </c>
+      <c r="H12" s="5">
+        <v>4.1439590000000001E-5</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0.46901409999999999</v>
+      </c>
+      <c r="J12" s="3">
+        <v>17.766169999999999</v>
+      </c>
+      <c r="K12" s="3">
+        <v>1.3667469999999999</v>
+      </c>
+      <c r="L12" s="3">
+        <v>3.778743</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0.96091890000000002</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0.747</v>
+      </c>
+      <c r="O12" s="3">
+        <v>992.44659999999999</v>
+      </c>
+      <c r="P12" s="3">
+        <v>46.90444591</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>-91.035976959999999</v>
+      </c>
+      <c r="R12" s="3"/>
+    </row>
+    <row r="13" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>45119.467789351853</v>
+      </c>
+      <c r="B13" s="3">
+        <v>770.14729999999997</v>
+      </c>
+      <c r="C13" s="3">
+        <v>5.229927</v>
+      </c>
+      <c r="D13" s="3">
+        <v>5.4945059999999997E-2</v>
+      </c>
+      <c r="E13" s="3">
+        <v>6.3753439999999995E-2</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.99864039999999998</v>
+      </c>
+      <c r="H13" s="5">
+        <v>4.143966E-5</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0.47315279999999998</v>
+      </c>
+      <c r="J13" s="3">
+        <v>17.766159999999999</v>
+      </c>
+      <c r="K13" s="3">
+        <v>1.412822</v>
+      </c>
+      <c r="L13" s="3">
+        <v>3.884935</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0.99331290000000005</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0.747</v>
+      </c>
+      <c r="O13" s="3">
+        <v>992.44799999999998</v>
+      </c>
+      <c r="P13" s="3">
+        <v>46.90444591</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>-91.035976959999999</v>
+      </c>
+      <c r="R13" s="3"/>
+    </row>
+    <row r="14" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>45119.467800925922</v>
+      </c>
+      <c r="B14" s="3">
+        <v>362.2645</v>
+      </c>
+      <c r="C14" s="3">
+        <v>5.979997</v>
+      </c>
+      <c r="D14" s="3">
+        <v>5.4945059999999997E-2</v>
+      </c>
+      <c r="E14" s="3">
+        <v>6.3760209999999998E-2</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.99864039999999998</v>
+      </c>
+      <c r="H14" s="5">
+        <v>4.1439300000000002E-5</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0.46405960000000002</v>
+      </c>
+      <c r="J14" s="3">
+        <v>17.761510000000001</v>
+      </c>
+      <c r="K14" s="3">
+        <v>1.8080860000000001</v>
+      </c>
+      <c r="L14" s="3">
+        <v>4.7948820000000003</v>
+      </c>
+      <c r="M14" s="3">
+        <v>1.2712110000000001</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0.75478429999999996</v>
+      </c>
+      <c r="O14" s="3">
+        <v>992.48320000000001</v>
+      </c>
+      <c r="P14" s="3">
+        <v>46.90444591</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>-91.035976959999999</v>
+      </c>
+      <c r="R14" s="3"/>
+    </row>
+    <row r="15" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>45119.467812499999</v>
+      </c>
+      <c r="B15" s="3">
+        <v>242.70410000000001</v>
+      </c>
+      <c r="C15" s="3">
+        <v>6.0149319999999999</v>
+      </c>
+      <c r="D15" s="3">
+        <v>5.4945059999999997E-2</v>
+      </c>
+      <c r="E15" s="3">
+        <v>6.3760510000000006E-2</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.99864039999999998</v>
+      </c>
+      <c r="H15" s="5">
+        <v>4.1439290000000001E-5</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0.46514070000000002</v>
+      </c>
+      <c r="J15" s="3">
+        <v>17.761299999999999</v>
+      </c>
+      <c r="K15" s="3">
+        <v>1.8455170000000001</v>
+      </c>
+      <c r="L15" s="3">
+        <v>4.8810969999999996</v>
+      </c>
+      <c r="M15" s="3">
+        <v>1.297528</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0.75517860000000003</v>
+      </c>
+      <c r="O15" s="3">
+        <v>992.48569999999995</v>
+      </c>
+      <c r="P15" s="3">
+        <v>46.90444591</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>-91.035976959999999</v>
+      </c>
+      <c r="R15" s="3"/>
+    </row>
+    <row r="16" spans="1:18" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>45119.467824074076</v>
+      </c>
+      <c r="B16" s="3">
+        <v>123.1438</v>
+      </c>
+      <c r="C16" s="3">
+        <v>6.0498669999999999</v>
+      </c>
+      <c r="D16" s="3">
+        <v>5.4945059999999997E-2</v>
+      </c>
+      <c r="E16" s="3">
+        <v>6.3760810000000001E-2</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.99864039999999998</v>
+      </c>
+      <c r="H16" s="5">
+        <v>4.1439269999999999E-5</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0.46622190000000002</v>
+      </c>
+      <c r="J16" s="3">
+        <v>17.761099999999999</v>
+      </c>
+      <c r="K16" s="3">
+        <v>1.8829480000000001</v>
+      </c>
+      <c r="L16" s="3">
+        <v>4.9673119999999997</v>
+      </c>
+      <c r="M16" s="3">
+        <v>1.323844</v>
+      </c>
+      <c r="N16" s="3">
+        <v>0.75557289999999999</v>
+      </c>
+      <c r="O16" s="3">
+        <v>992.48820000000001</v>
+      </c>
+      <c r="P16" s="3">
+        <v>46.90444591</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>-91.035976959999999</v>
+      </c>
+      <c r="R16" s="3"/>
     </row>
     <row r="17" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="A17" s="4">
+        <v>45119.467835648145</v>
+      </c>
+      <c r="B17" s="3">
+        <v>94.474170000000001</v>
+      </c>
+      <c r="C17" s="3">
+        <v>5.9251180000000003</v>
+      </c>
+      <c r="D17" s="3">
+        <v>5.4945059999999997E-2</v>
+      </c>
+      <c r="E17" s="3">
+        <v>6.3758980000000007E-2</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.99864109999999995</v>
+      </c>
+      <c r="H17" s="5">
+        <v>4.1442729999999998E-5</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0.39565450000000002</v>
+      </c>
+      <c r="J17" s="3">
+        <v>17.766169999999999</v>
+      </c>
+      <c r="K17" s="3">
+        <v>2.4186960000000002</v>
+      </c>
+      <c r="L17" s="3">
+        <v>6.2067600000000001</v>
+      </c>
+      <c r="M17" s="3">
+        <v>1.7005129999999999</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0.76343879999999997</v>
+      </c>
+      <c r="O17" s="3">
+        <v>992.41970000000003</v>
+      </c>
+      <c r="P17" s="3">
+        <v>46.90444591</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>-91.035976959999999</v>
+      </c>
+      <c r="R17" s="3"/>
     </row>
     <row r="18" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="A18" s="4">
+        <v>45119.467847222222</v>
+      </c>
+      <c r="B18" s="3">
+        <v>82.667280000000005</v>
+      </c>
+      <c r="C18" s="3">
+        <v>5.9342480000000002</v>
+      </c>
+      <c r="D18" s="3">
+        <v>5.4945059999999997E-2</v>
+      </c>
+      <c r="E18" s="3">
+        <v>6.375902E-2</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.99864109999999995</v>
+      </c>
+      <c r="H18" s="5">
+        <v>4.1442910000000003E-5</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0.3918642</v>
+      </c>
+      <c r="J18" s="3">
+        <v>17.76634</v>
+      </c>
+      <c r="K18" s="3">
+        <v>2.4548190000000001</v>
+      </c>
+      <c r="L18" s="3">
+        <v>6.2902329999999997</v>
+      </c>
+      <c r="M18" s="3">
+        <v>1.7259089999999999</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0.7640055</v>
+      </c>
+      <c r="O18" s="3">
+        <v>992.41690000000006</v>
+      </c>
+      <c r="P18" s="3">
+        <v>46.90444591</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>-91.035976959999999</v>
+      </c>
+      <c r="R18" s="3"/>
     </row>
     <row r="19" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="A19" s="4">
+        <v>45119.467858796299</v>
+      </c>
+      <c r="B19" s="3">
+        <v>70.860389999999995</v>
+      </c>
+      <c r="C19" s="3">
+        <v>5.9433790000000002</v>
+      </c>
+      <c r="D19" s="3">
+        <v>5.4945059999999997E-2</v>
+      </c>
+      <c r="E19" s="3">
+        <v>6.3759070000000001E-2</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.99864109999999995</v>
+      </c>
+      <c r="H19" s="5">
+        <v>4.1443080000000002E-5</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0.38807370000000002</v>
+      </c>
+      <c r="J19" s="3">
+        <v>17.766500000000001</v>
+      </c>
+      <c r="K19" s="3">
+        <v>2.4909409999999998</v>
+      </c>
+      <c r="L19" s="3">
+        <v>6.3737050000000002</v>
+      </c>
+      <c r="M19" s="3">
+        <v>1.751306</v>
+      </c>
+      <c r="N19" s="3">
+        <v>0.76457229999999998</v>
+      </c>
+      <c r="O19" s="3">
+        <v>992.41409999999996</v>
+      </c>
+      <c r="P19" s="3">
+        <v>46.90444591</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>-91.035976959999999</v>
+      </c>
+      <c r="R19" s="3"/>
     </row>
     <row r="20" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
+      <c r="A20" s="4">
+        <v>45119.467870370368</v>
+      </c>
+      <c r="B20" s="3">
+        <v>153.75040000000001</v>
+      </c>
+      <c r="C20" s="3">
+        <v>6.0635459999999997</v>
+      </c>
+      <c r="D20" s="3">
+        <v>5.4945059999999997E-2</v>
+      </c>
+      <c r="E20" s="3">
+        <v>6.3766630000000005E-2</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.99864209999999998</v>
+      </c>
+      <c r="H20" s="5">
+        <v>4.1443840000000001E-5</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0.44152439999999998</v>
+      </c>
+      <c r="J20" s="3">
+        <v>17.757490000000001</v>
+      </c>
+      <c r="K20" s="3">
+        <v>2.77224</v>
+      </c>
+      <c r="L20" s="3">
+        <v>7.021077</v>
+      </c>
+      <c r="M20" s="3">
+        <v>1.949079</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0.78759749999999995</v>
+      </c>
+      <c r="O20" s="3">
+        <v>992.42100000000005</v>
+      </c>
+      <c r="P20" s="3">
+        <v>46.90444591</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>-91.035976959999999</v>
+      </c>
+      <c r="R20" s="3"/>
     </row>
     <row r="21" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
+      <c r="A21" s="4">
+        <v>45119.467881944445</v>
+      </c>
+      <c r="B21" s="3">
+        <v>156.45330000000001</v>
+      </c>
+      <c r="C21" s="3">
+        <v>6.0670440000000001</v>
+      </c>
+      <c r="D21" s="3">
+        <v>5.4945059999999997E-2</v>
+      </c>
+      <c r="E21" s="3">
+        <v>6.3766980000000001E-2</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0.99864220000000004</v>
+      </c>
+      <c r="H21" s="5">
+        <v>4.1443950000000002E-5</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0.44281310000000002</v>
+      </c>
+      <c r="J21" s="3">
+        <v>17.75714</v>
+      </c>
+      <c r="K21" s="3">
+        <v>2.7981660000000002</v>
+      </c>
+      <c r="L21" s="3">
+        <v>7.0808799999999996</v>
+      </c>
+      <c r="M21" s="3">
+        <v>1.9673069999999999</v>
+      </c>
+      <c r="N21" s="3">
+        <v>0.78895000000000004</v>
+      </c>
+      <c r="O21" s="3">
+        <v>992.41989999999998</v>
+      </c>
+      <c r="P21" s="3">
+        <v>46.90444591</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>-91.035976959999999</v>
+      </c>
+      <c r="R21" s="3"/>
     </row>
     <row r="22" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O22" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="P22" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q22" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R22" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="A22" s="4">
+        <v>45119.467893518522</v>
+      </c>
+      <c r="B22" s="3">
+        <v>159.15610000000001</v>
+      </c>
+      <c r="C22" s="3">
+        <v>6.0705410000000004</v>
+      </c>
+      <c r="D22" s="3">
+        <v>5.4945059999999997E-2</v>
+      </c>
+      <c r="E22" s="3">
+        <v>6.3767329999999997E-2</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0.99864229999999998</v>
+      </c>
+      <c r="H22" s="5">
+        <v>4.1444070000000003E-5</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0.44410179999999999</v>
+      </c>
+      <c r="J22" s="3">
+        <v>17.756779999999999</v>
+      </c>
+      <c r="K22" s="3">
+        <v>2.824093</v>
+      </c>
+      <c r="L22" s="3">
+        <v>7.1406830000000001</v>
+      </c>
+      <c r="M22" s="3">
+        <v>1.985535</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0.79030250000000002</v>
+      </c>
+      <c r="O22" s="3">
+        <v>992.41880000000003</v>
+      </c>
+      <c r="P22" s="3">
+        <v>46.90444591</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>-91.035976959999999</v>
+      </c>
+      <c r="R22" s="3"/>
     </row>
     <row r="23" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
-        <v>45119.467662037037</v>
+        <v>45119.467905092592</v>
       </c>
       <c r="B23" s="3">
-        <v>1554.252</v>
+        <v>248.80279999999999</v>
       </c>
       <c r="C23" s="3">
-        <v>5.6128619999999998</v>
+        <v>6.0213409999999996</v>
       </c>
       <c r="D23" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E23" s="3">
-        <v>6.3749979999999998E-2</v>
+        <v>6.3767160000000003E-2</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
       </c>
       <c r="G23" s="3">
-        <v>0.99863979999999997</v>
+        <v>0.99864220000000004</v>
       </c>
       <c r="H23" s="5">
-        <v>4.1436410000000003E-5</v>
+        <v>4.1448069999999998E-5</v>
       </c>
       <c r="I23" s="3">
-        <v>0.39901340000000002</v>
+        <v>0.48592869999999999</v>
       </c>
       <c r="J23" s="3">
-        <v>17.76877</v>
+        <v>17.761130000000001</v>
       </c>
       <c r="K23" s="3">
-        <v>0.28763240000000001</v>
+        <v>3.0432410000000001</v>
       </c>
       <c r="L23" s="3">
-        <v>1.2910140000000001</v>
+        <v>7.6453559999999996</v>
       </c>
       <c r="M23" s="3">
-        <v>0.20222570000000001</v>
+        <v>2.1396120000000001</v>
       </c>
       <c r="N23" s="3">
-        <v>0.747</v>
+        <v>0.79856899999999997</v>
       </c>
       <c r="O23" s="3">
-        <v>992.47829999999999</v>
+        <v>992.41079999999999</v>
       </c>
       <c r="P23" s="3">
         <v>46.90444591</v>
@@ -1247,49 +2243,49 @@
     </row>
     <row r="24" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
-        <v>45119.467673611114</v>
+        <v>45119.467916666668</v>
       </c>
       <c r="B24" s="3">
-        <v>1496.556</v>
+        <v>255.215</v>
       </c>
       <c r="C24" s="3">
-        <v>5.6224679999999996</v>
+        <v>6.0213390000000002</v>
       </c>
       <c r="D24" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E24" s="3">
-        <v>6.3750210000000002E-2</v>
+        <v>6.3767309999999994E-2</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>0.99863979999999997</v>
+        <v>0.99864229999999998</v>
       </c>
       <c r="H24" s="5">
-        <v>4.143656E-5</v>
+        <v>4.1448300000000001E-5</v>
       </c>
       <c r="I24" s="3">
-        <v>0.39968130000000002</v>
+        <v>0.48925429999999998</v>
       </c>
       <c r="J24" s="3">
-        <v>17.768599999999999</v>
+        <v>17.76117</v>
       </c>
       <c r="K24" s="3">
-        <v>0.2897883</v>
+        <v>3.0605039999999999</v>
       </c>
       <c r="L24" s="3">
-        <v>1.2959609999999999</v>
+        <v>7.6851010000000004</v>
       </c>
       <c r="M24" s="3">
-        <v>0.20374149999999999</v>
+        <v>2.1517490000000001</v>
       </c>
       <c r="N24" s="3">
-        <v>0.747</v>
+        <v>0.79947789999999996</v>
       </c>
       <c r="O24" s="3">
-        <v>992.48239999999998</v>
+        <v>992.41060000000004</v>
       </c>
       <c r="P24" s="3">
         <v>46.90444591</v>
@@ -1301,49 +2297,49 @@
     </row>
     <row r="25" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
-        <v>45119.467685185184</v>
+        <v>45119.467928240738</v>
       </c>
       <c r="B25" s="3">
-        <v>6452.9120000000003</v>
+        <v>261.62709999999998</v>
       </c>
       <c r="C25" s="3">
-        <v>5.4768739999999996</v>
+        <v>6.0213380000000001</v>
       </c>
       <c r="D25" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E25" s="3">
-        <v>6.3747670000000006E-2</v>
+        <v>6.3767459999999998E-2</v>
       </c>
       <c r="F25" s="3">
         <v>0</v>
       </c>
       <c r="G25" s="3">
-        <v>0.99863970000000002</v>
+        <v>0.99864229999999998</v>
       </c>
       <c r="H25" s="5">
-        <v>4.1435849999999997E-5</v>
+        <v>4.1448529999999997E-5</v>
       </c>
       <c r="I25" s="3">
-        <v>0.37173679999999998</v>
+        <v>0.49258000000000002</v>
       </c>
       <c r="J25" s="3">
-        <v>17.769559999999998</v>
+        <v>17.761209999999998</v>
       </c>
       <c r="K25" s="3">
-        <v>0.25454280000000001</v>
+        <v>3.0777670000000001</v>
       </c>
       <c r="L25" s="3">
-        <v>1.2151449999999999</v>
+        <v>7.7248450000000002</v>
       </c>
       <c r="M25" s="3">
-        <v>0.17896139999999999</v>
+        <v>2.1638860000000002</v>
       </c>
       <c r="N25" s="3">
-        <v>0.747</v>
+        <v>0.80038670000000001</v>
       </c>
       <c r="O25" s="3">
-        <v>992.43439999999998</v>
+        <v>992.41030000000001</v>
       </c>
       <c r="P25" s="3">
         <v>46.90444591</v>
@@ -1355,49 +2351,49 @@
     </row>
     <row r="26" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
-        <v>45119.46769675926</v>
+        <v>45119.467939814815</v>
       </c>
       <c r="B26" s="3">
-        <v>6670.4650000000001</v>
+        <v>268.03930000000003</v>
       </c>
       <c r="C26" s="3">
-        <v>5.4735259999999997</v>
+        <v>6.0213359999999998</v>
       </c>
       <c r="D26" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E26" s="3">
-        <v>6.3747659999999998E-2</v>
+        <v>6.3767599999999994E-2</v>
       </c>
       <c r="F26" s="3">
         <v>0</v>
       </c>
       <c r="G26" s="3">
-        <v>0.99863970000000002</v>
+        <v>0.99864229999999998</v>
       </c>
       <c r="H26" s="5">
-        <v>4.1435869999999999E-5</v>
+        <v>4.1448749999999999E-5</v>
       </c>
       <c r="I26" s="3">
-        <v>0.37038850000000001</v>
+        <v>0.4959057</v>
       </c>
       <c r="J26" s="3">
-        <v>17.76952</v>
+        <v>17.76126</v>
       </c>
       <c r="K26" s="3">
-        <v>0.25361860000000003</v>
+        <v>3.0950299999999999</v>
       </c>
       <c r="L26" s="3">
-        <v>1.213028</v>
+        <v>7.7645879999999998</v>
       </c>
       <c r="M26" s="3">
-        <v>0.17831159999999999</v>
+        <v>2.1760229999999998</v>
       </c>
       <c r="N26" s="3">
-        <v>0.747</v>
+        <v>0.80129550000000005</v>
       </c>
       <c r="O26" s="3">
-        <v>992.43409999999994</v>
+        <v>992.41</v>
       </c>
       <c r="P26" s="3">
         <v>46.90444591</v>
@@ -1409,49 +2405,49 @@
     </row>
     <row r="27" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
-        <v>45119.46770833333</v>
+        <v>45119.467951388891</v>
       </c>
       <c r="B27" s="3">
-        <v>6888.018</v>
+        <v>154.04810000000001</v>
       </c>
       <c r="C27" s="3">
-        <v>5.4701769999999996</v>
+        <v>6.1567850000000002</v>
       </c>
       <c r="D27" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E27" s="3">
-        <v>6.3747650000000003E-2</v>
+        <v>6.3765959999999997E-2</v>
       </c>
       <c r="F27" s="3">
         <v>0</v>
       </c>
       <c r="G27" s="3">
-        <v>0.99863970000000002</v>
+        <v>0.99864200000000003</v>
       </c>
       <c r="H27" s="5">
-        <v>4.143589E-5</v>
+        <v>4.1447769999999998E-5</v>
       </c>
       <c r="I27" s="3">
-        <v>0.36904009999999998</v>
+        <v>0.47611809999999999</v>
       </c>
       <c r="J27" s="3">
-        <v>17.769490000000001</v>
+        <v>17.757950000000001</v>
       </c>
       <c r="K27" s="3">
-        <v>0.25269429999999998</v>
+        <v>3.0889030000000002</v>
       </c>
       <c r="L27" s="3">
-        <v>1.2109110000000001</v>
+        <v>8.8400130000000008</v>
       </c>
       <c r="M27" s="3">
-        <v>0.17766180000000001</v>
+        <v>2.503314</v>
       </c>
       <c r="N27" s="3">
-        <v>0.747</v>
+        <v>0.81673070000000003</v>
       </c>
       <c r="O27" s="3">
-        <v>992.43370000000004</v>
+        <v>992.41869999999994</v>
       </c>
       <c r="P27" s="3">
         <v>46.90444591</v>
@@ -1463,49 +2459,49 @@
     </row>
     <row r="28" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
-        <v>45119.467719907407</v>
+        <v>45119.467962962961</v>
       </c>
       <c r="B28" s="3">
-        <v>7105.5709999999999</v>
+        <v>150.35650000000001</v>
       </c>
       <c r="C28" s="3">
-        <v>5.4668279999999996</v>
+        <v>6.1625449999999997</v>
       </c>
       <c r="D28" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E28" s="3">
-        <v>6.3747639999999994E-2</v>
+        <v>6.3765879999999997E-2</v>
       </c>
       <c r="F28" s="3">
         <v>0</v>
       </c>
       <c r="G28" s="3">
-        <v>0.99863970000000002</v>
+        <v>0.99864200000000003</v>
       </c>
       <c r="H28" s="5">
-        <v>4.1435920000000002E-5</v>
+        <v>4.1447810000000001E-5</v>
       </c>
       <c r="I28" s="3">
-        <v>0.36769180000000001</v>
+        <v>0.47608539999999999</v>
       </c>
       <c r="J28" s="3">
-        <v>17.769449999999999</v>
+        <v>17.75788</v>
       </c>
       <c r="K28" s="3">
-        <v>0.2517701</v>
+        <v>3.0937039999999998</v>
       </c>
       <c r="L28" s="3">
-        <v>1.2087939999999999</v>
+        <v>8.9060609999999993</v>
       </c>
       <c r="M28" s="3">
-        <v>0.177012</v>
+        <v>2.5234260000000002</v>
       </c>
       <c r="N28" s="3">
-        <v>0.747</v>
+        <v>0.81770659999999995</v>
       </c>
       <c r="O28" s="3">
-        <v>992.43330000000003</v>
+        <v>992.41890000000001</v>
       </c>
       <c r="P28" s="3">
         <v>46.90444591</v>
@@ -1517,49 +2513,49 @@
     </row>
     <row r="29" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
-        <v>45119.467731481483</v>
+        <v>45119.467974537038</v>
       </c>
       <c r="B29" s="3">
-        <v>5931.9129999999996</v>
+        <v>146.66480000000001</v>
       </c>
       <c r="C29" s="3">
-        <v>5.4002489999999996</v>
+        <v>6.168304</v>
       </c>
       <c r="D29" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E29" s="3">
-        <v>6.3755129999999993E-2</v>
+        <v>6.3765790000000003E-2</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>0.99864039999999998</v>
+        <v>0.99864200000000003</v>
       </c>
       <c r="H29" s="5">
-        <v>4.1439320000000003E-5</v>
+        <v>4.1447859999999997E-5</v>
       </c>
       <c r="I29" s="3">
-        <v>0.39087860000000002</v>
+        <v>0.4760527</v>
       </c>
       <c r="J29" s="3">
-        <v>17.765029999999999</v>
+        <v>17.757809999999999</v>
       </c>
       <c r="K29" s="3">
-        <v>0.48012329999999998</v>
+        <v>3.0985049999999998</v>
       </c>
       <c r="L29" s="3">
-        <v>1.7353620000000001</v>
+        <v>8.9721100000000007</v>
       </c>
       <c r="M29" s="3">
-        <v>0.33756029999999998</v>
+        <v>2.543539</v>
       </c>
       <c r="N29" s="3">
-        <v>0.747</v>
+        <v>0.81868249999999998</v>
       </c>
       <c r="O29" s="3">
-        <v>992.41340000000002</v>
+        <v>992.41920000000005</v>
       </c>
       <c r="P29" s="3">
         <v>46.90444591</v>
@@ -1571,49 +2567,49 @@
     </row>
     <row r="30" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
-        <v>45119.467743055553</v>
+        <v>45119.467986111114</v>
       </c>
       <c r="B30" s="3">
-        <v>5982.6490000000003</v>
+        <v>134.9984</v>
       </c>
       <c r="C30" s="3">
-        <v>5.3938189999999997</v>
+        <v>6.1057290000000002</v>
       </c>
       <c r="D30" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E30" s="3">
-        <v>6.3755450000000005E-2</v>
+        <v>6.3777529999999999E-2</v>
       </c>
       <c r="F30" s="3">
         <v>0</v>
       </c>
       <c r="G30" s="3">
-        <v>0.99864039999999998</v>
+        <v>0.99864359999999996</v>
       </c>
       <c r="H30" s="5">
-        <v>4.143947E-5</v>
+        <v>4.1455390000000002E-5</v>
       </c>
       <c r="I30" s="3">
-        <v>0.39141730000000002</v>
+        <v>0.4514648</v>
       </c>
       <c r="J30" s="3">
-        <v>17.76483</v>
+        <v>17.75919</v>
       </c>
       <c r="K30" s="3">
-        <v>0.49072270000000001</v>
+        <v>3.6631770000000001</v>
       </c>
       <c r="L30" s="3">
-        <v>1.7598130000000001</v>
+        <v>9.1992130000000003</v>
       </c>
       <c r="M30" s="3">
-        <v>0.3450124</v>
+        <v>2.6128900000000002</v>
       </c>
       <c r="N30" s="3">
-        <v>0.747</v>
+        <v>0.81068229999999997</v>
       </c>
       <c r="O30" s="3">
-        <v>992.41139999999996</v>
+        <v>992.47199999999998</v>
       </c>
       <c r="P30" s="3">
         <v>46.90444591</v>
@@ -1625,49 +2621,49 @@
     </row>
     <row r="31" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
-        <v>45119.46775462963</v>
+        <v>45119.467997685184</v>
       </c>
       <c r="B31" s="3">
-        <v>6033.3850000000002</v>
+        <v>132.08699999999999</v>
       </c>
       <c r="C31" s="3">
-        <v>5.3873879999999996</v>
+        <v>6.1054729999999999</v>
       </c>
       <c r="D31" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E31" s="3">
-        <v>6.3755770000000003E-2</v>
+        <v>6.3778089999999996E-2</v>
       </c>
       <c r="F31" s="3">
         <v>0</v>
       </c>
       <c r="G31" s="3">
-        <v>0.99864050000000004</v>
+        <v>0.99864370000000002</v>
       </c>
       <c r="H31" s="5">
-        <v>4.1439629999999997E-5</v>
+        <v>4.1455760000000001E-5</v>
       </c>
       <c r="I31" s="3">
-        <v>0.39195609999999997</v>
+        <v>0.44986219999999999</v>
       </c>
       <c r="J31" s="3">
-        <v>17.764620000000001</v>
+        <v>17.75919</v>
       </c>
       <c r="K31" s="3">
-        <v>0.50132220000000005</v>
+        <v>3.6919729999999999</v>
       </c>
       <c r="L31" s="3">
-        <v>1.784265</v>
+        <v>9.2346280000000007</v>
       </c>
       <c r="M31" s="3">
-        <v>0.35246460000000002</v>
+        <v>2.6236799999999998</v>
       </c>
       <c r="N31" s="3">
-        <v>0.747</v>
+        <v>0.81062749999999995</v>
       </c>
       <c r="O31" s="3">
-        <v>992.40940000000001</v>
+        <v>992.47490000000005</v>
       </c>
       <c r="P31" s="3">
         <v>46.90444591</v>
@@ -1679,49 +2675,49 @@
     </row>
     <row r="32" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
-        <v>45119.467766203707</v>
+        <v>45119.468009259261</v>
       </c>
       <c r="B32" s="3">
-        <v>1290.26</v>
+        <v>129.17570000000001</v>
       </c>
       <c r="C32" s="3">
-        <v>5.2469609999999998</v>
+        <v>6.1052169999999997</v>
       </c>
       <c r="D32" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E32" s="3">
-        <v>6.3753370000000004E-2</v>
+        <v>6.3778650000000006E-2</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>0.99864039999999998</v>
+        <v>0.99864379999999997</v>
       </c>
       <c r="H32" s="5">
-        <v>4.1439520000000003E-5</v>
+        <v>4.145613E-5</v>
       </c>
       <c r="I32" s="3">
-        <v>0.46487539999999999</v>
+        <v>0.44825949999999998</v>
       </c>
       <c r="J32" s="3">
-        <v>17.766190000000002</v>
+        <v>17.75919</v>
       </c>
       <c r="K32" s="3">
-        <v>1.3206720000000001</v>
+        <v>3.7207690000000002</v>
       </c>
       <c r="L32" s="3">
-        <v>3.672552</v>
+        <v>9.2700410000000009</v>
       </c>
       <c r="M32" s="3">
-        <v>0.92852500000000004</v>
+        <v>2.6344699999999999</v>
       </c>
       <c r="N32" s="3">
-        <v>0.747</v>
+        <v>0.81057270000000003</v>
       </c>
       <c r="O32" s="3">
-        <v>992.4452</v>
+        <v>992.47770000000003</v>
       </c>
       <c r="P32" s="3">
         <v>46.90444591</v>
@@ -1733,49 +2729,49 @@
     </row>
     <row r="33" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
-        <v>45119.467777777776</v>
+        <v>45119.46802083333</v>
       </c>
       <c r="B33" s="3">
-        <v>1030.204</v>
+        <v>99.378489999999999</v>
       </c>
       <c r="C33" s="3">
-        <v>5.2384440000000003</v>
+        <v>6.1194009999999999</v>
       </c>
       <c r="D33" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E33" s="3">
-        <v>6.3753400000000002E-2</v>
+        <v>6.3779520000000006E-2</v>
       </c>
       <c r="F33" s="3">
         <v>0</v>
       </c>
       <c r="G33" s="3">
-        <v>0.99864039999999998</v>
+        <v>0.99864379999999997</v>
       </c>
       <c r="H33" s="5">
-        <v>4.1439590000000001E-5</v>
+        <v>4.1456689999999998E-5</v>
       </c>
       <c r="I33" s="3">
-        <v>0.46901409999999999</v>
+        <v>0.60956200000000005</v>
       </c>
       <c r="J33" s="3">
-        <v>17.766169999999999</v>
+        <v>17.748909999999999</v>
       </c>
       <c r="K33" s="3">
-        <v>1.3667469999999999</v>
+        <v>4.0715300000000001</v>
       </c>
       <c r="L33" s="3">
-        <v>3.778743</v>
+        <v>10.04767</v>
       </c>
       <c r="M33" s="3">
-        <v>0.96091890000000002</v>
+        <v>2.8719730000000001</v>
       </c>
       <c r="N33" s="3">
-        <v>0.747</v>
+        <v>0.81816420000000001</v>
       </c>
       <c r="O33" s="3">
-        <v>992.44659999999999</v>
+        <v>992.41639999999995</v>
       </c>
       <c r="P33" s="3">
         <v>46.90444591</v>
@@ -1787,49 +2783,49 @@
     </row>
     <row r="34" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
-        <v>45119.467789351853</v>
+        <v>45119.468032407407</v>
       </c>
       <c r="B34" s="3">
-        <v>770.14729999999997</v>
+        <v>97.521659999999997</v>
       </c>
       <c r="C34" s="3">
-        <v>5.229927</v>
+        <v>6.1189090000000004</v>
       </c>
       <c r="D34" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E34" s="3">
-        <v>6.3753439999999995E-2</v>
+        <v>6.3779810000000006E-2</v>
       </c>
       <c r="F34" s="3">
         <v>0</v>
       </c>
       <c r="G34" s="3">
-        <v>0.99864039999999998</v>
+        <v>0.99864390000000003</v>
       </c>
       <c r="H34" s="5">
-        <v>4.143966E-5</v>
+        <v>4.1456879999999998E-5</v>
       </c>
       <c r="I34" s="3">
-        <v>0.47315279999999998</v>
+        <v>0.61749149999999997</v>
       </c>
       <c r="J34" s="3">
-        <v>17.766159999999999</v>
+        <v>17.7484</v>
       </c>
       <c r="K34" s="3">
-        <v>1.412822</v>
+        <v>4.1018980000000003</v>
       </c>
       <c r="L34" s="3">
-        <v>3.884935</v>
+        <v>10.094239999999999</v>
       </c>
       <c r="M34" s="3">
-        <v>0.99331290000000005</v>
+        <v>2.8861979999999998</v>
       </c>
       <c r="N34" s="3">
-        <v>0.747</v>
+        <v>0.81840880000000005</v>
       </c>
       <c r="O34" s="3">
-        <v>992.44799999999998</v>
+        <v>992.41430000000003</v>
       </c>
       <c r="P34" s="3">
         <v>46.90444591</v>
@@ -1841,49 +2837,49 @@
     </row>
     <row r="35" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
-        <v>45119.467800925922</v>
+        <v>45119.468043981484</v>
       </c>
       <c r="B35" s="3">
-        <v>362.2645</v>
+        <v>95.664820000000006</v>
       </c>
       <c r="C35" s="3">
-        <v>5.979997</v>
+        <v>6.1184180000000001</v>
       </c>
       <c r="D35" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E35" s="3">
-        <v>6.3760209999999998E-2</v>
+        <v>6.3780100000000006E-2</v>
       </c>
       <c r="F35" s="3">
         <v>0</v>
       </c>
       <c r="G35" s="3">
-        <v>0.99864039999999998</v>
+        <v>0.99864390000000003</v>
       </c>
       <c r="H35" s="5">
-        <v>4.1439300000000002E-5</v>
+        <v>4.1457069999999998E-5</v>
       </c>
       <c r="I35" s="3">
-        <v>0.46405960000000002</v>
+        <v>0.625421</v>
       </c>
       <c r="J35" s="3">
-        <v>17.761510000000001</v>
+        <v>17.747890000000002</v>
       </c>
       <c r="K35" s="3">
-        <v>1.8080860000000001</v>
+        <v>4.1322660000000004</v>
       </c>
       <c r="L35" s="3">
-        <v>4.7948820000000003</v>
+        <v>10.14082</v>
       </c>
       <c r="M35" s="3">
-        <v>1.2712110000000001</v>
+        <v>2.9004219999999998</v>
       </c>
       <c r="N35" s="3">
-        <v>0.75478429999999996</v>
+        <v>0.81865330000000003</v>
       </c>
       <c r="O35" s="3">
-        <v>992.48320000000001</v>
+        <v>992.41219999999998</v>
       </c>
       <c r="P35" s="3">
         <v>46.90444591</v>
@@ -1895,49 +2891,49 @@
     </row>
     <row r="36" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
-        <v>45119.467812499999</v>
+        <v>45119.468055555553</v>
       </c>
       <c r="B36" s="3">
-        <v>242.70410000000001</v>
+        <v>106.62</v>
       </c>
       <c r="C36" s="3">
-        <v>6.0149319999999999</v>
+        <v>6.1566049999999999</v>
       </c>
       <c r="D36" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E36" s="3">
-        <v>6.3760510000000006E-2</v>
+        <v>6.3776869999999999E-2</v>
       </c>
       <c r="F36" s="3">
         <v>0</v>
       </c>
       <c r="G36" s="3">
-        <v>0.99864039999999998</v>
+        <v>0.99864529999999996</v>
       </c>
       <c r="H36" s="5">
-        <v>4.1439290000000001E-5</v>
+        <v>4.1464239999999998E-5</v>
       </c>
       <c r="I36" s="3">
-        <v>0.46514070000000002</v>
+        <v>0.51841210000000004</v>
       </c>
       <c r="J36" s="3">
-        <v>17.761299999999999</v>
+        <v>17.75001</v>
       </c>
       <c r="K36" s="3">
-        <v>1.8455170000000001</v>
+        <v>4.8158760000000003</v>
       </c>
       <c r="L36" s="3">
-        <v>4.8810969999999996</v>
+        <v>11.734069999999999</v>
       </c>
       <c r="M36" s="3">
-        <v>1.297528</v>
+        <v>3.3858969999999999</v>
       </c>
       <c r="N36" s="3">
-        <v>0.75517860000000003</v>
+        <v>0.82667259999999998</v>
       </c>
       <c r="O36" s="3">
-        <v>992.48569999999995</v>
+        <v>992.43759999999997</v>
       </c>
       <c r="P36" s="3">
         <v>46.90444591</v>
@@ -1949,49 +2945,49 @@
     </row>
     <row r="37" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
-        <v>45119.467824074076</v>
+        <v>45119.46806712963</v>
       </c>
       <c r="B37" s="3">
-        <v>123.1438</v>
+        <v>106.479</v>
       </c>
       <c r="C37" s="3">
-        <v>6.0498669999999999</v>
+        <v>6.1589219999999996</v>
       </c>
       <c r="D37" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E37" s="3">
-        <v>6.3760810000000001E-2</v>
+        <v>6.3776719999999995E-2</v>
       </c>
       <c r="F37" s="3">
         <v>0</v>
       </c>
       <c r="G37" s="3">
-        <v>0.99864039999999998</v>
+        <v>0.99864540000000002</v>
       </c>
       <c r="H37" s="5">
-        <v>4.1439269999999999E-5</v>
+        <v>4.1464629999999998E-5</v>
       </c>
       <c r="I37" s="3">
-        <v>0.46622190000000002</v>
+        <v>0.51643229999999996</v>
       </c>
       <c r="J37" s="3">
-        <v>17.761099999999999</v>
+        <v>17.749890000000001</v>
       </c>
       <c r="K37" s="3">
-        <v>1.8829480000000001</v>
+        <v>4.859515</v>
       </c>
       <c r="L37" s="3">
-        <v>4.9673119999999997</v>
+        <v>11.834720000000001</v>
       </c>
       <c r="M37" s="3">
-        <v>1.323844</v>
+        <v>3.416579</v>
       </c>
       <c r="N37" s="3">
-        <v>0.75557289999999999</v>
+        <v>0.82726040000000001</v>
       </c>
       <c r="O37" s="3">
-        <v>992.48820000000001</v>
+        <v>992.43759999999997</v>
       </c>
       <c r="P37" s="3">
         <v>46.90444591</v>
@@ -2003,49 +2999,49 @@
     </row>
     <row r="38" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
-        <v>45119.467835648145</v>
+        <v>45119.468078703707</v>
       </c>
       <c r="B38" s="3">
-        <v>94.474170000000001</v>
+        <v>106.33799999999999</v>
       </c>
       <c r="C38" s="3">
-        <v>5.9251180000000003</v>
+        <v>6.1612400000000003</v>
       </c>
       <c r="D38" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E38" s="3">
-        <v>6.3758980000000007E-2</v>
+        <v>6.3776579999999999E-2</v>
       </c>
       <c r="F38" s="3">
         <v>0</v>
       </c>
       <c r="G38" s="3">
-        <v>0.99864109999999995</v>
+        <v>0.99864540000000002</v>
       </c>
       <c r="H38" s="5">
-        <v>4.1442729999999998E-5</v>
+        <v>4.1465019999999998E-5</v>
       </c>
       <c r="I38" s="3">
-        <v>0.39565450000000002</v>
+        <v>0.51445260000000004</v>
       </c>
       <c r="J38" s="3">
-        <v>17.766169999999999</v>
+        <v>17.749770000000002</v>
       </c>
       <c r="K38" s="3">
-        <v>2.4186960000000002</v>
+        <v>4.9031549999999999</v>
       </c>
       <c r="L38" s="3">
-        <v>6.2067600000000001</v>
+        <v>11.935370000000001</v>
       </c>
       <c r="M38" s="3">
-        <v>1.7005129999999999</v>
+        <v>3.4472610000000001</v>
       </c>
       <c r="N38" s="3">
-        <v>0.76343879999999997</v>
+        <v>0.82784820000000003</v>
       </c>
       <c r="O38" s="3">
-        <v>992.41970000000003</v>
+        <v>992.43759999999997</v>
       </c>
       <c r="P38" s="3">
         <v>46.90444591</v>
@@ -2057,49 +3053,49 @@
     </row>
     <row r="39" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
-        <v>45119.467847222222</v>
+        <v>45119.468090277776</v>
       </c>
       <c r="B39" s="3">
-        <v>82.667280000000005</v>
+        <v>152.71180000000001</v>
       </c>
       <c r="C39" s="3">
-        <v>5.9342480000000002</v>
+        <v>6.1720709999999999</v>
       </c>
       <c r="D39" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E39" s="3">
-        <v>6.375902E-2</v>
+        <v>6.3787049999999998E-2</v>
       </c>
       <c r="F39" s="3">
         <v>0</v>
       </c>
       <c r="G39" s="3">
-        <v>0.99864109999999995</v>
+        <v>0.998645</v>
       </c>
       <c r="H39" s="5">
-        <v>4.1442910000000003E-5</v>
+        <v>4.1462670000000003E-5</v>
       </c>
       <c r="I39" s="3">
-        <v>0.3918642</v>
+        <v>0.45903909999999998</v>
       </c>
       <c r="J39" s="3">
-        <v>17.76634</v>
+        <v>17.739940000000001</v>
       </c>
       <c r="K39" s="3">
-        <v>2.4548190000000001</v>
+        <v>5.1135619999999999</v>
       </c>
       <c r="L39" s="3">
-        <v>6.2902329999999997</v>
+        <v>12.422779999999999</v>
       </c>
       <c r="M39" s="3">
-        <v>1.7259089999999999</v>
+        <v>3.5951919999999999</v>
       </c>
       <c r="N39" s="3">
-        <v>0.7640055</v>
+        <v>0.81992589999999999</v>
       </c>
       <c r="O39" s="3">
-        <v>992.41690000000006</v>
+        <v>992.41279999999995</v>
       </c>
       <c r="P39" s="3">
         <v>46.90444591</v>
@@ -2111,49 +3107,49 @@
     </row>
     <row r="40" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
-        <v>45119.467858796299</v>
+        <v>45119.468101851853</v>
       </c>
       <c r="B40" s="3">
-        <v>70.860389999999995</v>
+        <v>155.33029999999999</v>
       </c>
       <c r="C40" s="3">
-        <v>5.9433790000000002</v>
+        <v>6.1734640000000001</v>
       </c>
       <c r="D40" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E40" s="3">
-        <v>6.3759070000000001E-2</v>
+        <v>6.3787529999999995E-2</v>
       </c>
       <c r="F40" s="3">
         <v>0</v>
       </c>
       <c r="G40" s="3">
-        <v>0.99864109999999995</v>
+        <v>0.998645</v>
       </c>
       <c r="H40" s="5">
-        <v>4.1443080000000002E-5</v>
+        <v>4.1462709999999999E-5</v>
       </c>
       <c r="I40" s="3">
-        <v>0.38807370000000002</v>
+        <v>0.45395489999999999</v>
       </c>
       <c r="J40" s="3">
-        <v>17.766500000000001</v>
+        <v>17.739470000000001</v>
       </c>
       <c r="K40" s="3">
-        <v>2.4909409999999998</v>
+        <v>5.1399460000000001</v>
       </c>
       <c r="L40" s="3">
-        <v>6.3737050000000002</v>
+        <v>12.483750000000001</v>
       </c>
       <c r="M40" s="3">
-        <v>1.751306</v>
+        <v>3.6137419999999998</v>
       </c>
       <c r="N40" s="3">
-        <v>0.76457229999999998</v>
+        <v>0.81969420000000004</v>
       </c>
       <c r="O40" s="3">
-        <v>992.41409999999996</v>
+        <v>992.41200000000003</v>
       </c>
       <c r="P40" s="3">
         <v>46.90444591</v>
@@ -2165,49 +3161,49 @@
     </row>
     <row r="41" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
-        <v>45119.467870370368</v>
+        <v>45119.468113425923</v>
       </c>
       <c r="B41" s="3">
-        <v>153.75040000000001</v>
+        <v>157.9487</v>
       </c>
       <c r="C41" s="3">
-        <v>6.0635459999999997</v>
+        <v>6.1748570000000003</v>
       </c>
       <c r="D41" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E41" s="3">
-        <v>6.3766630000000005E-2</v>
+        <v>6.3787999999999997E-2</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
       </c>
       <c r="G41" s="3">
-        <v>0.99864209999999998</v>
+        <v>0.99864509999999995</v>
       </c>
       <c r="H41" s="5">
-        <v>4.1443840000000001E-5</v>
+        <v>4.1462750000000002E-5</v>
       </c>
       <c r="I41" s="3">
-        <v>0.44152439999999998</v>
+        <v>0.44887080000000001</v>
       </c>
       <c r="J41" s="3">
-        <v>17.757490000000001</v>
+        <v>17.739000000000001</v>
       </c>
       <c r="K41" s="3">
-        <v>2.77224</v>
+        <v>5.1663309999999996</v>
       </c>
       <c r="L41" s="3">
-        <v>7.021077</v>
+        <v>12.544729999999999</v>
       </c>
       <c r="M41" s="3">
-        <v>1.949079</v>
+        <v>3.6322920000000001</v>
       </c>
       <c r="N41" s="3">
-        <v>0.78759749999999995</v>
+        <v>0.81946249999999998</v>
       </c>
       <c r="O41" s="3">
-        <v>992.42100000000005</v>
+        <v>992.41120000000001</v>
       </c>
       <c r="P41" s="3">
         <v>46.90444591</v>
@@ -2219,49 +3215,49 @@
     </row>
     <row r="42" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
-        <v>45119.467881944445</v>
+        <v>45119.468124999999</v>
       </c>
       <c r="B42" s="3">
-        <v>156.45330000000001</v>
+        <v>191.68520000000001</v>
       </c>
       <c r="C42" s="3">
-        <v>6.0670440000000001</v>
+        <v>6.1250879999999999</v>
       </c>
       <c r="D42" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E42" s="3">
-        <v>6.3766980000000001E-2</v>
+        <v>6.3797649999999997E-2</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>0.99864220000000004</v>
+        <v>0.99864699999999995</v>
       </c>
       <c r="H42" s="5">
-        <v>4.1443950000000002E-5</v>
+        <v>4.14726E-5</v>
       </c>
       <c r="I42" s="3">
-        <v>0.44281310000000002</v>
+        <v>0.52088489999999998</v>
       </c>
       <c r="J42" s="3">
-        <v>17.75714</v>
+        <v>17.734729999999999</v>
       </c>
       <c r="K42" s="3">
-        <v>2.7981660000000002</v>
+        <v>5.9726080000000001</v>
       </c>
       <c r="L42" s="3">
-        <v>7.0808799999999996</v>
+        <v>14.4046</v>
       </c>
       <c r="M42" s="3">
-        <v>1.9673069999999999</v>
+        <v>4.1991620000000003</v>
       </c>
       <c r="N42" s="3">
-        <v>0.78895000000000004</v>
+        <v>0.82700589999999996</v>
       </c>
       <c r="O42" s="3">
-        <v>992.41989999999998</v>
+        <v>992.41909999999996</v>
       </c>
       <c r="P42" s="3">
         <v>46.90444591</v>
@@ -2273,49 +3269,49 @@
     </row>
     <row r="43" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
-        <v>45119.467893518522</v>
+        <v>45119.468136574076</v>
       </c>
       <c r="B43" s="3">
-        <v>159.15610000000001</v>
+        <v>194.4237</v>
       </c>
       <c r="C43" s="3">
-        <v>6.0705410000000004</v>
+        <v>6.1227910000000003</v>
       </c>
       <c r="D43" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E43" s="3">
-        <v>6.3767329999999997E-2</v>
+        <v>6.3798369999999993E-2</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
       </c>
       <c r="G43" s="3">
-        <v>0.99864229999999998</v>
+        <v>0.99864699999999995</v>
       </c>
       <c r="H43" s="5">
-        <v>4.1444070000000003E-5</v>
+        <v>4.1473059999999998E-5</v>
       </c>
       <c r="I43" s="3">
-        <v>0.44410179999999999</v>
+        <v>0.52338609999999997</v>
       </c>
       <c r="J43" s="3">
-        <v>17.756779999999999</v>
+        <v>17.734290000000001</v>
       </c>
       <c r="K43" s="3">
-        <v>2.824093</v>
+        <v>6.0192040000000002</v>
       </c>
       <c r="L43" s="3">
-        <v>7.1406830000000001</v>
+        <v>14.512130000000001</v>
       </c>
       <c r="M43" s="3">
-        <v>1.985535</v>
+        <v>4.231922</v>
       </c>
       <c r="N43" s="3">
-        <v>0.79030250000000002</v>
+        <v>0.82722929999999995</v>
       </c>
       <c r="O43" s="3">
-        <v>992.41880000000003</v>
+        <v>992.41899999999998</v>
       </c>
       <c r="P43" s="3">
         <v>46.90444591</v>
@@ -2327,49 +3323,49 @@
     </row>
     <row r="44" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
-        <v>45119.467905092592</v>
+        <v>45119.468148148146</v>
       </c>
       <c r="B44" s="3">
-        <v>248.80279999999999</v>
+        <v>197.16220000000001</v>
       </c>
       <c r="C44" s="3">
-        <v>6.0213409999999996</v>
+        <v>6.120495</v>
       </c>
       <c r="D44" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E44" s="3">
-        <v>6.3767160000000003E-2</v>
+        <v>6.3799090000000003E-2</v>
       </c>
       <c r="F44" s="3">
         <v>0</v>
       </c>
       <c r="G44" s="3">
-        <v>0.99864220000000004</v>
+        <v>0.99864719999999996</v>
       </c>
       <c r="H44" s="5">
-        <v>4.1448069999999998E-5</v>
+        <v>4.1473520000000003E-5</v>
       </c>
       <c r="I44" s="3">
-        <v>0.48592869999999999</v>
+        <v>0.5258874</v>
       </c>
       <c r="J44" s="3">
-        <v>17.761130000000001</v>
+        <v>17.73385</v>
       </c>
       <c r="K44" s="3">
-        <v>3.0432410000000001</v>
+        <v>6.0658010000000004</v>
       </c>
       <c r="L44" s="3">
-        <v>7.6453559999999996</v>
+        <v>14.61966</v>
       </c>
       <c r="M44" s="3">
-        <v>2.1396120000000001</v>
+        <v>4.2646819999999996</v>
       </c>
       <c r="N44" s="3">
-        <v>0.79856899999999997</v>
+        <v>0.82745270000000004</v>
       </c>
       <c r="O44" s="3">
-        <v>992.41079999999999</v>
+        <v>992.41880000000003</v>
       </c>
       <c r="P44" s="3">
         <v>46.90444591</v>
@@ -2381,49 +3377,49 @@
     </row>
     <row r="45" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
-        <v>45119.467916666668</v>
+        <v>45119.468159722222</v>
       </c>
       <c r="B45" s="3">
-        <v>255.215</v>
+        <v>204.57169999999999</v>
       </c>
       <c r="C45" s="3">
-        <v>6.0213390000000002</v>
+        <v>6.2906079999999998</v>
       </c>
       <c r="D45" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E45" s="3">
-        <v>6.3767309999999994E-2</v>
+        <v>6.3814480000000007E-2</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>0.99864229999999998</v>
+        <v>0.99864850000000005</v>
       </c>
       <c r="H45" s="5">
-        <v>4.1448300000000001E-5</v>
+        <v>4.1479919999999997E-5</v>
       </c>
       <c r="I45" s="3">
-        <v>0.48925429999999998</v>
+        <v>0.47376659999999998</v>
       </c>
       <c r="J45" s="3">
-        <v>17.76117</v>
+        <v>17.729769999999998</v>
       </c>
       <c r="K45" s="3">
-        <v>3.0605039999999999</v>
+        <v>6.271725</v>
       </c>
       <c r="L45" s="3">
-        <v>7.6851010000000004</v>
+        <v>15.09399</v>
       </c>
       <c r="M45" s="3">
-        <v>2.1517490000000001</v>
+        <v>4.4094620000000004</v>
       </c>
       <c r="N45" s="3">
-        <v>0.79947789999999996</v>
+        <v>0.83534169999999996</v>
       </c>
       <c r="O45" s="3">
-        <v>992.41060000000004</v>
+        <v>992.40229999999997</v>
       </c>
       <c r="P45" s="3">
         <v>46.90444591</v>
@@ -2435,49 +3431,49 @@
     </row>
     <row r="46" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
-        <v>45119.467928240738</v>
+        <v>45119.468171296299</v>
       </c>
       <c r="B46" s="3">
-        <v>261.62709999999998</v>
+        <v>205.68170000000001</v>
       </c>
       <c r="C46" s="3">
-        <v>6.0213380000000001</v>
+        <v>6.2983779999999996</v>
       </c>
       <c r="D46" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E46" s="3">
-        <v>6.3767459999999998E-2</v>
+        <v>6.3815479999999994E-2</v>
       </c>
       <c r="F46" s="3">
         <v>0</v>
       </c>
       <c r="G46" s="3">
-        <v>0.99864229999999998</v>
+        <v>0.9986486</v>
       </c>
       <c r="H46" s="5">
-        <v>4.1448529999999997E-5</v>
+        <v>4.1480460000000001E-5</v>
       </c>
       <c r="I46" s="3">
-        <v>0.49258000000000002</v>
+        <v>0.4725356</v>
       </c>
       <c r="J46" s="3">
-        <v>17.761209999999998</v>
+        <v>17.729469999999999</v>
       </c>
       <c r="K46" s="3">
-        <v>3.0777670000000001</v>
+        <v>6.2996059999999998</v>
       </c>
       <c r="L46" s="3">
-        <v>7.7248450000000002</v>
+        <v>15.15827</v>
       </c>
       <c r="M46" s="3">
-        <v>2.1638860000000002</v>
+        <v>4.4290640000000003</v>
       </c>
       <c r="N46" s="3">
-        <v>0.80038670000000001</v>
+        <v>0.8359084</v>
       </c>
       <c r="O46" s="3">
-        <v>992.41030000000001</v>
+        <v>992.40170000000001</v>
       </c>
       <c r="P46" s="3">
         <v>46.90444591</v>
@@ -2489,49 +3485,49 @@
     </row>
     <row r="47" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
-        <v>45119.467939814815</v>
+        <v>45119.468182870369</v>
       </c>
       <c r="B47" s="3">
-        <v>268.03930000000003</v>
+        <v>206.79179999999999</v>
       </c>
       <c r="C47" s="3">
-        <v>6.0213359999999998</v>
+        <v>6.3061480000000003</v>
       </c>
       <c r="D47" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E47" s="3">
-        <v>6.3767599999999994E-2</v>
+        <v>6.3816490000000003E-2</v>
       </c>
       <c r="F47" s="3">
         <v>0</v>
       </c>
       <c r="G47" s="3">
-        <v>0.99864229999999998</v>
+        <v>0.99864869999999994</v>
       </c>
       <c r="H47" s="5">
-        <v>4.1448749999999999E-5</v>
+        <v>4.1480999999999998E-5</v>
       </c>
       <c r="I47" s="3">
-        <v>0.4959057</v>
+        <v>0.47130470000000002</v>
       </c>
       <c r="J47" s="3">
-        <v>17.76126</v>
+        <v>17.72917</v>
       </c>
       <c r="K47" s="3">
-        <v>3.0950299999999999</v>
+        <v>6.3274869999999996</v>
       </c>
       <c r="L47" s="3">
-        <v>7.7645879999999998</v>
+        <v>15.22255</v>
       </c>
       <c r="M47" s="3">
-        <v>2.1760229999999998</v>
+        <v>4.4486670000000004</v>
       </c>
       <c r="N47" s="3">
-        <v>0.80129550000000005</v>
+        <v>0.83647510000000003</v>
       </c>
       <c r="O47" s="3">
-        <v>992.41</v>
+        <v>992.40089999999998</v>
       </c>
       <c r="P47" s="3">
         <v>46.90444591</v>
@@ -2543,49 +3539,49 @@
     </row>
     <row r="48" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
-        <v>45119.467951388891</v>
+        <v>45119.468194444446</v>
       </c>
       <c r="B48" s="3">
-        <v>154.04810000000001</v>
+        <v>238.49279999999999</v>
       </c>
       <c r="C48" s="3">
-        <v>6.1567850000000002</v>
+        <v>6.2129120000000002</v>
       </c>
       <c r="D48" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E48" s="3">
-        <v>6.3765959999999997E-2</v>
+        <v>6.381945E-2</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
       </c>
       <c r="G48" s="3">
-        <v>0.99864200000000003</v>
+        <v>0.99864940000000002</v>
       </c>
       <c r="H48" s="5">
-        <v>4.1447769999999998E-5</v>
+        <v>4.1484640000000002E-5</v>
       </c>
       <c r="I48" s="3">
-        <v>0.47611809999999999</v>
+        <v>0.50609879999999996</v>
       </c>
       <c r="J48" s="3">
-        <v>17.757950000000001</v>
+        <v>17.720549999999999</v>
       </c>
       <c r="K48" s="3">
-        <v>3.0889030000000002</v>
+        <v>6.8695820000000003</v>
       </c>
       <c r="L48" s="3">
-        <v>8.8400130000000008</v>
+        <v>16.47297</v>
       </c>
       <c r="M48" s="3">
-        <v>2.503314</v>
+        <v>4.8297970000000001</v>
       </c>
       <c r="N48" s="3">
-        <v>0.81673070000000003</v>
+        <v>0.8290322</v>
       </c>
       <c r="O48" s="3">
-        <v>992.41869999999994</v>
+        <v>992.40890000000002</v>
       </c>
       <c r="P48" s="3">
         <v>46.90444591</v>
@@ -2597,49 +3593,49 @@
     </row>
     <row r="49" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
-        <v>45119.467962962961</v>
+        <v>45119.468206018515</v>
       </c>
       <c r="B49" s="3">
-        <v>150.35650000000001</v>
+        <v>240.32149999999999</v>
       </c>
       <c r="C49" s="3">
-        <v>6.1625449999999997</v>
+        <v>6.2115289999999996</v>
       </c>
       <c r="D49" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E49" s="3">
-        <v>6.3765879999999997E-2</v>
+        <v>6.3819929999999997E-2</v>
       </c>
       <c r="F49" s="3">
         <v>0</v>
       </c>
       <c r="G49" s="3">
-        <v>0.99864200000000003</v>
+        <v>0.99864940000000002</v>
       </c>
       <c r="H49" s="5">
-        <v>4.1447810000000001E-5</v>
+        <v>4.1484959999999997E-5</v>
       </c>
       <c r="I49" s="3">
-        <v>0.47608539999999999</v>
+        <v>0.50682799999999995</v>
       </c>
       <c r="J49" s="3">
-        <v>17.75788</v>
+        <v>17.720009999999998</v>
       </c>
       <c r="K49" s="3">
-        <v>3.0937039999999998</v>
+        <v>6.9023190000000003</v>
       </c>
       <c r="L49" s="3">
-        <v>8.9060609999999993</v>
+        <v>16.548469999999998</v>
       </c>
       <c r="M49" s="3">
-        <v>2.5234260000000002</v>
+        <v>4.8528130000000003</v>
       </c>
       <c r="N49" s="3">
-        <v>0.81770659999999995</v>
+        <v>0.82879930000000002</v>
       </c>
       <c r="O49" s="3">
-        <v>992.41890000000001</v>
+        <v>992.40899999999999</v>
       </c>
       <c r="P49" s="3">
         <v>46.90444591</v>
@@ -2651,49 +3647,49 @@
     </row>
     <row r="50" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
-        <v>45119.467974537038</v>
+        <v>45119.468217592592</v>
       </c>
       <c r="B50" s="3">
-        <v>146.66480000000001</v>
+        <v>242.15020000000001</v>
       </c>
       <c r="C50" s="3">
-        <v>6.168304</v>
+        <v>6.2101459999999999</v>
       </c>
       <c r="D50" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E50" s="3">
-        <v>6.3765790000000003E-2</v>
+        <v>6.3820409999999994E-2</v>
       </c>
       <c r="F50" s="3">
         <v>0</v>
       </c>
       <c r="G50" s="3">
-        <v>0.99864200000000003</v>
+        <v>0.99864949999999997</v>
       </c>
       <c r="H50" s="5">
-        <v>4.1447859999999997E-5</v>
+        <v>4.1485279999999999E-5</v>
       </c>
       <c r="I50" s="3">
-        <v>0.4760527</v>
+        <v>0.50755709999999998</v>
       </c>
       <c r="J50" s="3">
-        <v>17.757809999999999</v>
+        <v>17.719470000000001</v>
       </c>
       <c r="K50" s="3">
-        <v>3.0985049999999998</v>
+        <v>6.9350560000000003</v>
       </c>
       <c r="L50" s="3">
-        <v>8.9721100000000007</v>
+        <v>16.62397</v>
       </c>
       <c r="M50" s="3">
-        <v>2.543539</v>
+        <v>4.8758299999999997</v>
       </c>
       <c r="N50" s="3">
-        <v>0.81868249999999998</v>
+        <v>0.82856640000000004</v>
       </c>
       <c r="O50" s="3">
-        <v>992.41920000000005</v>
+        <v>992.40909999999997</v>
       </c>
       <c r="P50" s="3">
         <v>46.90444591</v>
@@ -2705,49 +3701,49 @@
     </row>
     <row r="51" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
-        <v>45119.467986111114</v>
+        <v>45119.468229166669</v>
       </c>
       <c r="B51" s="3">
-        <v>134.9984</v>
+        <v>319.59429999999998</v>
       </c>
       <c r="C51" s="3">
-        <v>6.1057290000000002</v>
+        <v>6.1990569999999998</v>
       </c>
       <c r="D51" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E51" s="3">
-        <v>6.3777529999999999E-2</v>
+        <v>6.3838140000000002E-2</v>
       </c>
       <c r="F51" s="3">
         <v>0</v>
       </c>
       <c r="G51" s="3">
-        <v>0.99864359999999996</v>
+        <v>0.99865139999999997</v>
       </c>
       <c r="H51" s="5">
-        <v>4.1455390000000002E-5</v>
+        <v>4.1495049999999998E-5</v>
       </c>
       <c r="I51" s="3">
-        <v>0.4514648</v>
+        <v>0.45169239999999999</v>
       </c>
       <c r="J51" s="3">
-        <v>17.75919</v>
+        <v>17.71726</v>
       </c>
       <c r="K51" s="3">
-        <v>3.6631770000000001</v>
+        <v>7.3865660000000002</v>
       </c>
       <c r="L51" s="3">
-        <v>9.1992130000000003</v>
+        <v>17.665040000000001</v>
       </c>
       <c r="M51" s="3">
-        <v>2.6128900000000002</v>
+        <v>5.1932729999999996</v>
       </c>
       <c r="N51" s="3">
-        <v>0.81068229999999997</v>
+        <v>0.82835270000000005</v>
       </c>
       <c r="O51" s="3">
-        <v>992.47199999999998</v>
+        <v>992.35879999999997</v>
       </c>
       <c r="P51" s="3">
         <v>46.90444591</v>
@@ -2759,49 +3755,49 @@
     </row>
     <row r="52" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
-        <v>45119.467997685184</v>
+        <v>45119.468240740738</v>
       </c>
       <c r="B52" s="3">
-        <v>132.08699999999999</v>
+        <v>324.38200000000001</v>
       </c>
       <c r="C52" s="3">
-        <v>6.1054729999999999</v>
+        <v>6.1963929999999996</v>
       </c>
       <c r="D52" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E52" s="3">
-        <v>6.3778089999999996E-2</v>
+        <v>6.3839140000000003E-2</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
       </c>
       <c r="G52" s="3">
-        <v>0.99864370000000002</v>
+        <v>0.99865150000000003</v>
       </c>
       <c r="H52" s="5">
-        <v>4.1455760000000001E-5</v>
+        <v>4.1495639999999999E-5</v>
       </c>
       <c r="I52" s="3">
-        <v>0.44986219999999999</v>
+        <v>0.44949230000000001</v>
       </c>
       <c r="J52" s="3">
-        <v>17.75919</v>
+        <v>17.71696</v>
       </c>
       <c r="K52" s="3">
-        <v>3.6919729999999999</v>
+        <v>7.421983</v>
       </c>
       <c r="L52" s="3">
-        <v>9.2346280000000007</v>
+        <v>17.74671</v>
       </c>
       <c r="M52" s="3">
-        <v>2.6236799999999998</v>
+        <v>5.2181740000000003</v>
       </c>
       <c r="N52" s="3">
-        <v>0.81062749999999995</v>
+        <v>0.82818009999999997</v>
       </c>
       <c r="O52" s="3">
-        <v>992.47490000000005</v>
+        <v>992.35630000000003</v>
       </c>
       <c r="P52" s="3">
         <v>46.90444591</v>
@@ -2813,49 +3809,49 @@
     </row>
     <row r="53" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
-        <v>45119.468009259261</v>
+        <v>45119.468252314815</v>
       </c>
       <c r="B53" s="3">
-        <v>129.17570000000001</v>
+        <v>329.1696</v>
       </c>
       <c r="C53" s="3">
-        <v>6.1052169999999997</v>
+        <v>6.1937300000000004</v>
       </c>
       <c r="D53" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E53" s="3">
-        <v>6.3778650000000006E-2</v>
+        <v>6.3840140000000004E-2</v>
       </c>
       <c r="F53" s="3">
         <v>0</v>
       </c>
       <c r="G53" s="3">
-        <v>0.99864379999999997</v>
+        <v>0.99865159999999997</v>
       </c>
       <c r="H53" s="5">
-        <v>4.145613E-5</v>
+        <v>4.149623E-5</v>
       </c>
       <c r="I53" s="3">
-        <v>0.44825949999999998</v>
+        <v>0.44729229999999998</v>
       </c>
       <c r="J53" s="3">
-        <v>17.75919</v>
+        <v>17.716660000000001</v>
       </c>
       <c r="K53" s="3">
-        <v>3.7207690000000002</v>
+        <v>7.4573999999999998</v>
       </c>
       <c r="L53" s="3">
-        <v>9.2700410000000009</v>
+        <v>17.828389999999999</v>
       </c>
       <c r="M53" s="3">
-        <v>2.6344699999999999</v>
+        <v>5.243074</v>
       </c>
       <c r="N53" s="3">
-        <v>0.81057270000000003</v>
+        <v>0.82800750000000001</v>
       </c>
       <c r="O53" s="3">
-        <v>992.47770000000003</v>
+        <v>992.35379999999998</v>
       </c>
       <c r="P53" s="3">
         <v>46.90444591</v>
@@ -2867,49 +3863,49 @@
     </row>
     <row r="54" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
-        <v>45119.46802083333</v>
+        <v>45119.468263888892</v>
       </c>
       <c r="B54" s="3">
-        <v>99.378489999999999</v>
+        <v>333.9572</v>
       </c>
       <c r="C54" s="3">
-        <v>6.1194009999999999</v>
+        <v>6.1910660000000002</v>
       </c>
       <c r="D54" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E54" s="3">
-        <v>6.3779520000000006E-2</v>
+        <v>6.3841129999999996E-2</v>
       </c>
       <c r="F54" s="3">
         <v>0</v>
       </c>
       <c r="G54" s="3">
-        <v>0.99864379999999997</v>
+        <v>0.99865170000000003</v>
       </c>
       <c r="H54" s="5">
-        <v>4.1456689999999998E-5</v>
+        <v>4.1496830000000001E-5</v>
       </c>
       <c r="I54" s="3">
-        <v>0.60956200000000005</v>
+        <v>0.44509219999999999</v>
       </c>
       <c r="J54" s="3">
-        <v>17.748909999999999</v>
+        <v>17.716360000000002</v>
       </c>
       <c r="K54" s="3">
-        <v>4.0715300000000001</v>
+        <v>7.4928169999999996</v>
       </c>
       <c r="L54" s="3">
-        <v>10.04767</v>
+        <v>17.910060000000001</v>
       </c>
       <c r="M54" s="3">
-        <v>2.8719730000000001</v>
+        <v>5.2679749999999999</v>
       </c>
       <c r="N54" s="3">
-        <v>0.81816420000000001</v>
+        <v>0.82783499999999999</v>
       </c>
       <c r="O54" s="3">
-        <v>992.41639999999995</v>
+        <v>992.35130000000004</v>
       </c>
       <c r="P54" s="3">
         <v>46.90444591</v>
@@ -2921,49 +3917,49 @@
     </row>
     <row r="55" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
-        <v>45119.468032407407</v>
+        <v>45119.468275462961</v>
       </c>
       <c r="B55" s="3">
-        <v>97.521659999999997</v>
+        <v>324.56889999999999</v>
       </c>
       <c r="C55" s="3">
-        <v>6.1189090000000004</v>
+        <v>6.2601769999999997</v>
       </c>
       <c r="D55" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E55" s="3">
-        <v>6.3779810000000006E-2</v>
+        <v>6.3845529999999998E-2</v>
       </c>
       <c r="F55" s="3">
         <v>0</v>
       </c>
       <c r="G55" s="3">
-        <v>0.99864390000000003</v>
+        <v>0.99865230000000005</v>
       </c>
       <c r="H55" s="5">
-        <v>4.1456879999999998E-5</v>
+        <v>4.1499640000000001E-5</v>
       </c>
       <c r="I55" s="3">
-        <v>0.61749149999999997</v>
+        <v>0.51469450000000005</v>
       </c>
       <c r="J55" s="3">
-        <v>17.7484</v>
+        <v>17.702380000000002</v>
       </c>
       <c r="K55" s="3">
-        <v>4.1018980000000003</v>
+        <v>7.7365830000000004</v>
       </c>
       <c r="L55" s="3">
-        <v>10.094239999999999</v>
+        <v>19.184339999999999</v>
       </c>
       <c r="M55" s="3">
-        <v>2.8861979999999998</v>
+        <v>5.6562849999999996</v>
       </c>
       <c r="N55" s="3">
-        <v>0.81840880000000005</v>
+        <v>0.83597949999999999</v>
       </c>
       <c r="O55" s="3">
-        <v>992.41430000000003</v>
+        <v>992.40419999999995</v>
       </c>
       <c r="P55" s="3">
         <v>46.90444591</v>
@@ -2975,49 +3971,49 @@
     </row>
     <row r="56" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
-        <v>45119.468043981484</v>
+        <v>45119.468287037038</v>
       </c>
       <c r="B56" s="3">
-        <v>95.664820000000006</v>
+        <v>325.85680000000002</v>
       </c>
       <c r="C56" s="3">
-        <v>6.1184180000000001</v>
+        <v>6.2634280000000002</v>
       </c>
       <c r="D56" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E56" s="3">
-        <v>6.3780100000000006E-2</v>
+        <v>6.3846159999999999E-2</v>
       </c>
       <c r="F56" s="3">
         <v>0</v>
       </c>
       <c r="G56" s="3">
-        <v>0.99864390000000003</v>
+        <v>0.9986524</v>
       </c>
       <c r="H56" s="5">
-        <v>4.1457069999999998E-5</v>
+        <v>4.150001E-5</v>
       </c>
       <c r="I56" s="3">
-        <v>0.625421</v>
+        <v>0.51702099999999995</v>
       </c>
       <c r="J56" s="3">
-        <v>17.747890000000002</v>
+        <v>17.701609999999999</v>
       </c>
       <c r="K56" s="3">
-        <v>4.1322660000000004</v>
+        <v>7.7595929999999997</v>
       </c>
       <c r="L56" s="3">
-        <v>10.14082</v>
+        <v>19.273980000000002</v>
       </c>
       <c r="M56" s="3">
-        <v>2.9004219999999998</v>
+        <v>5.683605</v>
       </c>
       <c r="N56" s="3">
-        <v>0.81865330000000003</v>
+        <v>0.8363893</v>
       </c>
       <c r="O56" s="3">
-        <v>992.41219999999998</v>
+        <v>992.40570000000002</v>
       </c>
       <c r="P56" s="3">
         <v>46.90444591</v>
@@ -3029,49 +4025,49 @@
     </row>
     <row r="57" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
-        <v>45119.468055555553</v>
+        <v>45119.468298611115</v>
       </c>
       <c r="B57" s="3">
-        <v>106.62</v>
+        <v>327.1447</v>
       </c>
       <c r="C57" s="3">
-        <v>6.1566049999999999</v>
+        <v>6.26668</v>
       </c>
       <c r="D57" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E57" s="3">
-        <v>6.3776869999999999E-2</v>
+        <v>6.384679E-2</v>
       </c>
       <c r="F57" s="3">
         <v>0</v>
       </c>
       <c r="G57" s="3">
-        <v>0.99864529999999996</v>
+        <v>0.99865250000000005</v>
       </c>
       <c r="H57" s="5">
-        <v>4.1464239999999998E-5</v>
+        <v>4.1500379999999999E-5</v>
       </c>
       <c r="I57" s="3">
-        <v>0.51841210000000004</v>
+        <v>0.51934749999999996</v>
       </c>
       <c r="J57" s="3">
-        <v>17.75001</v>
+        <v>17.700839999999999</v>
       </c>
       <c r="K57" s="3">
-        <v>4.8158760000000003</v>
+        <v>7.7826019999999998</v>
       </c>
       <c r="L57" s="3">
-        <v>11.734069999999999</v>
+        <v>19.363610000000001</v>
       </c>
       <c r="M57" s="3">
-        <v>3.3858969999999999</v>
+        <v>5.7109249999999996</v>
       </c>
       <c r="N57" s="3">
-        <v>0.82667259999999998</v>
+        <v>0.83679919999999997</v>
       </c>
       <c r="O57" s="3">
-        <v>992.43759999999997</v>
+        <v>992.40729999999996</v>
       </c>
       <c r="P57" s="3">
         <v>46.90444591</v>
@@ -3083,49 +4079,49 @@
     </row>
     <row r="58" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
-        <v>45119.46806712963</v>
+        <v>45119.468310185184</v>
       </c>
       <c r="B58" s="3">
-        <v>106.479</v>
+        <v>371.22919999999999</v>
       </c>
       <c r="C58" s="3">
-        <v>6.1589219999999996</v>
+        <v>6.0522479999999996</v>
       </c>
       <c r="D58" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E58" s="3">
-        <v>6.3776719999999995E-2</v>
+        <v>6.3855720000000005E-2</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>0.99864540000000002</v>
+        <v>0.99865369999999998</v>
       </c>
       <c r="H58" s="5">
-        <v>4.1464629999999998E-5</v>
+        <v>4.150621E-5</v>
       </c>
       <c r="I58" s="3">
-        <v>0.51643229999999996</v>
+        <v>0.47457240000000001</v>
       </c>
       <c r="J58" s="3">
-        <v>17.749890000000001</v>
+        <v>17.702680000000001</v>
       </c>
       <c r="K58" s="3">
-        <v>4.859515</v>
+        <v>8.5788580000000003</v>
       </c>
       <c r="L58" s="3">
-        <v>11.834720000000001</v>
+        <v>20.497299999999999</v>
       </c>
       <c r="M58" s="3">
-        <v>3.416579</v>
+        <v>6.0563330000000004</v>
       </c>
       <c r="N58" s="3">
-        <v>0.82726040000000001</v>
+        <v>0.82103009999999998</v>
       </c>
       <c r="O58" s="3">
-        <v>992.43759999999997</v>
+        <v>992.41700000000003</v>
       </c>
       <c r="P58" s="3">
         <v>46.90444591</v>
@@ -3137,49 +4133,49 @@
     </row>
     <row r="59" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
-        <v>45119.468078703707</v>
+        <v>45119.468321759261</v>
       </c>
       <c r="B59" s="3">
-        <v>106.33799999999999</v>
+        <v>373.35120000000001</v>
       </c>
       <c r="C59" s="3">
-        <v>6.1612400000000003</v>
+        <v>6.0428230000000003</v>
       </c>
       <c r="D59" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E59" s="3">
-        <v>6.3776579999999999E-2</v>
+        <v>6.3856280000000001E-2</v>
       </c>
       <c r="F59" s="3">
         <v>0</v>
       </c>
       <c r="G59" s="3">
-        <v>0.99864540000000002</v>
+        <v>0.99865369999999998</v>
       </c>
       <c r="H59" s="5">
-        <v>4.1465019999999998E-5</v>
+        <v>4.1506579999999999E-5</v>
       </c>
       <c r="I59" s="3">
-        <v>0.51445260000000004</v>
+        <v>0.4737944</v>
       </c>
       <c r="J59" s="3">
-        <v>17.749770000000002</v>
+        <v>17.702459999999999</v>
       </c>
       <c r="K59" s="3">
-        <v>4.9031549999999999</v>
+        <v>8.6253650000000004</v>
       </c>
       <c r="L59" s="3">
-        <v>11.935370000000001</v>
+        <v>20.58456</v>
       </c>
       <c r="M59" s="3">
-        <v>3.4472610000000001</v>
+        <v>6.0829199999999997</v>
       </c>
       <c r="N59" s="3">
-        <v>0.82784820000000003</v>
+        <v>0.82040489999999999</v>
       </c>
       <c r="O59" s="3">
-        <v>992.43759999999997</v>
+        <v>992.41859999999997</v>
       </c>
       <c r="P59" s="3">
         <v>46.90444591</v>
@@ -3191,49 +4187,49 @@
     </row>
     <row r="60" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
-        <v>45119.468090277776</v>
+        <v>45119.468333333331</v>
       </c>
       <c r="B60" s="3">
-        <v>152.71180000000001</v>
+        <v>375.47329999999999</v>
       </c>
       <c r="C60" s="3">
-        <v>6.1720709999999999</v>
+        <v>6.033398</v>
       </c>
       <c r="D60" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E60" s="3">
-        <v>6.3787049999999998E-2</v>
+        <v>6.3856860000000001E-2</v>
       </c>
       <c r="F60" s="3">
         <v>0</v>
       </c>
       <c r="G60" s="3">
-        <v>0.998645</v>
+        <v>0.99865380000000004</v>
       </c>
       <c r="H60" s="5">
-        <v>4.1462670000000003E-5</v>
+        <v>4.1506959999999998E-5</v>
       </c>
       <c r="I60" s="3">
-        <v>0.45903909999999998</v>
+        <v>0.4730164</v>
       </c>
       <c r="J60" s="3">
-        <v>17.739940000000001</v>
+        <v>17.70224</v>
       </c>
       <c r="K60" s="3">
-        <v>5.1135619999999999</v>
+        <v>8.6718720000000005</v>
       </c>
       <c r="L60" s="3">
-        <v>12.422779999999999</v>
+        <v>20.67182</v>
       </c>
       <c r="M60" s="3">
-        <v>3.5951919999999999</v>
+        <v>6.1095079999999999</v>
       </c>
       <c r="N60" s="3">
-        <v>0.81992589999999999</v>
+        <v>0.81977979999999995</v>
       </c>
       <c r="O60" s="3">
-        <v>992.41279999999995</v>
+        <v>992.42020000000002</v>
       </c>
       <c r="P60" s="3">
         <v>46.90444591</v>
@@ -3245,49 +4241,49 @@
     </row>
     <row r="61" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
-        <v>45119.468101851853</v>
+        <v>45119.468344907407</v>
       </c>
       <c r="B61" s="3">
-        <v>155.33029999999999</v>
+        <v>467.12670000000003</v>
       </c>
       <c r="C61" s="3">
-        <v>6.1734640000000001</v>
+        <v>6.0676880000000004</v>
       </c>
       <c r="D61" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E61" s="3">
-        <v>6.3787529999999995E-2</v>
+        <v>6.3868820000000007E-2</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>0.998645</v>
+        <v>0.99865530000000002</v>
       </c>
       <c r="H61" s="5">
-        <v>4.1462709999999999E-5</v>
+        <v>4.151474E-5</v>
       </c>
       <c r="I61" s="3">
-        <v>0.45395489999999999</v>
+        <v>0.53551490000000002</v>
       </c>
       <c r="J61" s="3">
-        <v>17.739470000000001</v>
+        <v>17.685669999999998</v>
       </c>
       <c r="K61" s="3">
-        <v>5.1399460000000001</v>
+        <v>9.0408609999999996</v>
       </c>
       <c r="L61" s="3">
-        <v>12.483750000000001</v>
+        <v>21.5015</v>
       </c>
       <c r="M61" s="3">
-        <v>3.6137419999999998</v>
+        <v>6.3623479999999999</v>
       </c>
       <c r="N61" s="3">
-        <v>0.81969420000000004</v>
+        <v>0.83537839999999997</v>
       </c>
       <c r="O61" s="3">
-        <v>992.41200000000003</v>
+        <v>992.41060000000004</v>
       </c>
       <c r="P61" s="3">
         <v>46.90444591</v>
@@ -3299,49 +4295,49 @@
     </row>
     <row r="62" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
-        <v>45119.468113425923</v>
+        <v>45119.468356481484</v>
       </c>
       <c r="B62" s="3">
-        <v>157.9487</v>
+        <v>472.92829999999998</v>
       </c>
       <c r="C62" s="3">
-        <v>6.1748570000000003</v>
+        <v>6.0650339999999998</v>
       </c>
       <c r="D62" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E62" s="3">
-        <v>6.3787999999999997E-2</v>
+        <v>6.3869659999999995E-2</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
       </c>
       <c r="G62" s="3">
-        <v>0.99864509999999995</v>
+        <v>0.99865539999999997</v>
       </c>
       <c r="H62" s="5">
-        <v>4.1462750000000002E-5</v>
+        <v>4.1515279999999997E-5</v>
       </c>
       <c r="I62" s="3">
-        <v>0.44887080000000001</v>
+        <v>0.53791840000000002</v>
       </c>
       <c r="J62" s="3">
-        <v>17.739000000000001</v>
+        <v>17.684809999999999</v>
       </c>
       <c r="K62" s="3">
-        <v>5.1663309999999996</v>
+        <v>9.0776260000000004</v>
       </c>
       <c r="L62" s="3">
-        <v>12.544729999999999</v>
+        <v>21.571010000000001</v>
       </c>
       <c r="M62" s="3">
-        <v>3.6322920000000001</v>
+        <v>6.3835319999999998</v>
       </c>
       <c r="N62" s="3">
-        <v>0.81946249999999998</v>
+        <v>0.83587800000000001</v>
       </c>
       <c r="O62" s="3">
-        <v>992.41120000000001</v>
+        <v>992.41030000000001</v>
       </c>
       <c r="P62" s="3">
         <v>46.90444591</v>
@@ -3353,49 +4349,49 @@
     </row>
     <row r="63" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
-        <v>45119.468124999999</v>
+        <v>45119.468368055554</v>
       </c>
       <c r="B63" s="3">
-        <v>191.68520000000001</v>
+        <v>478.73</v>
       </c>
       <c r="C63" s="3">
-        <v>6.1250879999999999</v>
+        <v>6.0623800000000001</v>
       </c>
       <c r="D63" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E63" s="3">
-        <v>6.3797649999999997E-2</v>
+        <v>6.3870490000000002E-2</v>
       </c>
       <c r="F63" s="3">
         <v>0</v>
       </c>
       <c r="G63" s="3">
-        <v>0.99864699999999995</v>
+        <v>0.99865550000000003</v>
       </c>
       <c r="H63" s="5">
-        <v>4.14726E-5</v>
+        <v>4.1515820000000001E-5</v>
       </c>
       <c r="I63" s="3">
-        <v>0.52088489999999998</v>
+        <v>0.54032210000000003</v>
       </c>
       <c r="J63" s="3">
-        <v>17.734729999999999</v>
+        <v>17.683959999999999</v>
       </c>
       <c r="K63" s="3">
-        <v>5.9726080000000001</v>
+        <v>9.1143909999999995</v>
       </c>
       <c r="L63" s="3">
-        <v>14.4046</v>
+        <v>21.640529999999998</v>
       </c>
       <c r="M63" s="3">
-        <v>4.1991620000000003</v>
+        <v>6.4047150000000004</v>
       </c>
       <c r="N63" s="3">
-        <v>0.82700589999999996</v>
+        <v>0.8363775</v>
       </c>
       <c r="O63" s="3">
-        <v>992.41909999999996</v>
+        <v>992.41</v>
       </c>
       <c r="P63" s="3">
         <v>46.90444591</v>
@@ -3407,49 +4403,49 @@
     </row>
     <row r="64" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
-        <v>45119.468136574076</v>
+        <v>45119.46837962963</v>
       </c>
       <c r="B64" s="3">
-        <v>194.4237</v>
+        <v>584.9547</v>
       </c>
       <c r="C64" s="3">
-        <v>6.1227910000000003</v>
+        <v>6.1003550000000004</v>
       </c>
       <c r="D64" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E64" s="3">
-        <v>6.3798369999999993E-2</v>
+        <v>6.3867519999999997E-2</v>
       </c>
       <c r="F64" s="3">
         <v>0</v>
       </c>
       <c r="G64" s="3">
-        <v>0.99864699999999995</v>
+        <v>0.99865749999999998</v>
       </c>
       <c r="H64" s="5">
-        <v>4.1473059999999998E-5</v>
+        <v>4.152587E-5</v>
       </c>
       <c r="I64" s="3">
-        <v>0.52338609999999997</v>
+        <v>0.54011600000000004</v>
       </c>
       <c r="J64" s="3">
-        <v>17.734290000000001</v>
+        <v>17.685919999999999</v>
       </c>
       <c r="K64" s="3">
-        <v>6.0192040000000002</v>
+        <v>9.7377070000000003</v>
       </c>
       <c r="L64" s="3">
-        <v>14.512130000000001</v>
+        <v>23.0885</v>
       </c>
       <c r="M64" s="3">
-        <v>4.231922</v>
+        <v>6.8462899999999998</v>
       </c>
       <c r="N64" s="3">
-        <v>0.82722929999999995</v>
+        <v>0.82869999999999999</v>
       </c>
       <c r="O64" s="3">
-        <v>992.41899999999998</v>
+        <v>992.40989999999999</v>
       </c>
       <c r="P64" s="3">
         <v>46.90444591</v>
@@ -3461,49 +4457,49 @@
     </row>
     <row r="65" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
-        <v>45119.468148148146</v>
+        <v>45119.468391203707</v>
       </c>
       <c r="B65" s="3">
-        <v>197.16220000000001</v>
+        <v>592.59389999999996</v>
       </c>
       <c r="C65" s="3">
-        <v>6.120495</v>
+        <v>6.1030259999999998</v>
       </c>
       <c r="D65" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E65" s="3">
-        <v>6.3799090000000003E-2</v>
+        <v>6.3867640000000003E-2</v>
       </c>
       <c r="F65" s="3">
         <v>0</v>
       </c>
       <c r="G65" s="3">
-        <v>0.99864719999999996</v>
+        <v>0.99865760000000003</v>
       </c>
       <c r="H65" s="5">
-        <v>4.1473520000000003E-5</v>
+        <v>4.1526570000000001E-5</v>
       </c>
       <c r="I65" s="3">
-        <v>0.5258874</v>
+        <v>0.54152889999999998</v>
       </c>
       <c r="J65" s="3">
-        <v>17.73385</v>
+        <v>17.685649999999999</v>
       </c>
       <c r="K65" s="3">
-        <v>6.0658010000000004</v>
+        <v>9.7791149999999991</v>
       </c>
       <c r="L65" s="3">
-        <v>14.61966</v>
+        <v>23.183979999999998</v>
       </c>
       <c r="M65" s="3">
-        <v>4.2646819999999996</v>
+        <v>6.8754010000000001</v>
       </c>
       <c r="N65" s="3">
-        <v>0.82745270000000004</v>
+        <v>0.82864879999999996</v>
       </c>
       <c r="O65" s="3">
-        <v>992.41880000000003</v>
+        <v>992.40970000000004</v>
       </c>
       <c r="P65" s="3">
         <v>46.90444591</v>
@@ -3515,49 +4511,49 @@
     </row>
     <row r="66" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
-        <v>45119.468159722222</v>
+        <v>45119.468402777777</v>
       </c>
       <c r="B66" s="3">
-        <v>204.57169999999999</v>
+        <v>600.23320000000001</v>
       </c>
       <c r="C66" s="3">
-        <v>6.2906079999999998</v>
+        <v>6.1056980000000003</v>
       </c>
       <c r="D66" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E66" s="3">
-        <v>6.3814480000000007E-2</v>
+        <v>6.3867770000000004E-2</v>
       </c>
       <c r="F66" s="3">
         <v>0</v>
       </c>
       <c r="G66" s="3">
-        <v>0.99864850000000005</v>
+        <v>0.99865769999999998</v>
       </c>
       <c r="H66" s="5">
-        <v>4.1479919999999997E-5</v>
+        <v>4.1527270000000003E-5</v>
       </c>
       <c r="I66" s="3">
-        <v>0.47376659999999998</v>
+        <v>0.54294169999999997</v>
       </c>
       <c r="J66" s="3">
-        <v>17.729769999999998</v>
+        <v>17.685369999999999</v>
       </c>
       <c r="K66" s="3">
-        <v>6.271725</v>
+        <v>9.8205209999999994</v>
       </c>
       <c r="L66" s="3">
-        <v>15.09399</v>
+        <v>23.279450000000001</v>
       </c>
       <c r="M66" s="3">
-        <v>4.4094620000000004</v>
+        <v>6.9045139999999998</v>
       </c>
       <c r="N66" s="3">
-        <v>0.83534169999999996</v>
+        <v>0.82859760000000005</v>
       </c>
       <c r="O66" s="3">
-        <v>992.40229999999997</v>
+        <v>992.40949999999998</v>
       </c>
       <c r="P66" s="3">
         <v>46.90444591</v>
@@ -3569,49 +4565,49 @@
     </row>
     <row r="67" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
-        <v>45119.468171296299</v>
+        <v>45119.468414351853</v>
       </c>
       <c r="B67" s="3">
-        <v>205.68170000000001</v>
+        <v>1687.615</v>
       </c>
       <c r="C67" s="3">
-        <v>6.2983779999999996</v>
+        <v>6.1349169999999997</v>
       </c>
       <c r="D67" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E67" s="3">
-        <v>6.3815479999999994E-2</v>
+        <v>6.3891089999999998E-2</v>
       </c>
       <c r="F67" s="3">
         <v>0</v>
       </c>
       <c r="G67" s="3">
-        <v>0.9986486</v>
+        <v>0.99865839999999995</v>
       </c>
       <c r="H67" s="5">
-        <v>4.1480460000000001E-5</v>
+        <v>4.1530589999999998E-5</v>
       </c>
       <c r="I67" s="3">
-        <v>0.4725356</v>
+        <v>0.41826560000000002</v>
       </c>
       <c r="J67" s="3">
-        <v>17.729469999999999</v>
+        <v>17.672830000000001</v>
       </c>
       <c r="K67" s="3">
-        <v>6.2996059999999998</v>
+        <v>9.7993690000000004</v>
       </c>
       <c r="L67" s="3">
-        <v>15.15827</v>
+        <v>23.230979999999999</v>
       </c>
       <c r="M67" s="3">
-        <v>4.4290640000000003</v>
+        <v>6.8896420000000003</v>
       </c>
       <c r="N67" s="3">
-        <v>0.8359084</v>
+        <v>0.83608309999999997</v>
       </c>
       <c r="O67" s="3">
-        <v>992.40170000000001</v>
+        <v>992.40099999999995</v>
       </c>
       <c r="P67" s="3">
         <v>46.90444591</v>
@@ -3623,49 +4619,49 @@
     </row>
     <row r="68" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
-        <v>45119.468182870369</v>
+        <v>45119.468425925923</v>
       </c>
       <c r="B68" s="3">
-        <v>206.79179999999999</v>
+        <v>1746.547</v>
       </c>
       <c r="C68" s="3">
-        <v>6.3061480000000003</v>
+        <v>6.1372410000000004</v>
       </c>
       <c r="D68" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E68" s="3">
-        <v>6.3816490000000003E-2</v>
+        <v>6.3892249999999998E-2</v>
       </c>
       <c r="F68" s="3">
         <v>0</v>
       </c>
       <c r="G68" s="3">
-        <v>0.99864869999999994</v>
+        <v>0.9986585</v>
       </c>
       <c r="H68" s="5">
-        <v>4.1480999999999998E-5</v>
+        <v>4.1530999999999999E-5</v>
       </c>
       <c r="I68" s="3">
-        <v>0.47130470000000002</v>
+        <v>0.41184150000000003</v>
       </c>
       <c r="J68" s="3">
-        <v>17.72917</v>
+        <v>17.6722</v>
       </c>
       <c r="K68" s="3">
-        <v>6.3274869999999996</v>
+        <v>9.8127130000000005</v>
       </c>
       <c r="L68" s="3">
-        <v>15.22255</v>
+        <v>23.261759999999999</v>
       </c>
       <c r="M68" s="3">
-        <v>4.4486670000000004</v>
+        <v>6.8990239999999998</v>
       </c>
       <c r="N68" s="3">
-        <v>0.83647510000000003</v>
+        <v>0.83631440000000001</v>
       </c>
       <c r="O68" s="3">
-        <v>992.40089999999998</v>
+        <v>992.40049999999997</v>
       </c>
       <c r="P68" s="3">
         <v>46.90444591</v>
@@ -3677,49 +4673,49 @@
     </row>
     <row r="69" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
-        <v>45119.468194444446</v>
+        <v>45119.4684375</v>
       </c>
       <c r="B69" s="3">
-        <v>238.49279999999999</v>
+        <v>1805.479</v>
       </c>
       <c r="C69" s="3">
-        <v>6.2129120000000002</v>
+        <v>6.1395650000000002</v>
       </c>
       <c r="D69" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E69" s="3">
-        <v>6.381945E-2</v>
+        <v>6.3893420000000006E-2</v>
       </c>
       <c r="F69" s="3">
         <v>0</v>
       </c>
       <c r="G69" s="3">
-        <v>0.99864940000000002</v>
+        <v>0.99865859999999995</v>
       </c>
       <c r="H69" s="5">
-        <v>4.1484640000000002E-5</v>
+        <v>4.15314E-5</v>
       </c>
       <c r="I69" s="3">
-        <v>0.50609879999999996</v>
+        <v>0.40541739999999998</v>
       </c>
       <c r="J69" s="3">
-        <v>17.720549999999999</v>
+        <v>17.671579999999999</v>
       </c>
       <c r="K69" s="3">
-        <v>6.8695820000000003</v>
+        <v>9.8260570000000005</v>
       </c>
       <c r="L69" s="3">
-        <v>16.47297</v>
+        <v>23.292549999999999</v>
       </c>
       <c r="M69" s="3">
-        <v>4.8297970000000001</v>
+        <v>6.9084060000000003</v>
       </c>
       <c r="N69" s="3">
-        <v>0.8290322</v>
+        <v>0.83654580000000001</v>
       </c>
       <c r="O69" s="3">
-        <v>992.40890000000002</v>
+        <v>992.40009999999995</v>
       </c>
       <c r="P69" s="3">
         <v>46.90444591</v>
@@ -3731,49 +4727,49 @@
     </row>
     <row r="70" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
-        <v>45119.468206018515</v>
+        <v>45119.468449074076</v>
       </c>
       <c r="B70" s="3">
-        <v>240.32149999999999</v>
+        <v>2096.2020000000002</v>
       </c>
       <c r="C70" s="3">
-        <v>6.2115289999999996</v>
+        <v>6.2145809999999999</v>
       </c>
       <c r="D70" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E70" s="3">
-        <v>6.3819929999999997E-2</v>
+        <v>6.3893900000000003E-2</v>
       </c>
       <c r="F70" s="3">
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>0.99864940000000002</v>
+        <v>0.99866100000000002</v>
       </c>
       <c r="H70" s="5">
-        <v>4.1484959999999997E-5</v>
+        <v>4.1543930000000003E-5</v>
       </c>
       <c r="I70" s="3">
-        <v>0.50682799999999995</v>
+        <v>0.56732629999999995</v>
       </c>
       <c r="J70" s="3">
-        <v>17.720009999999998</v>
+        <v>17.667549999999999</v>
       </c>
       <c r="K70" s="3">
-        <v>6.9023190000000003</v>
+        <v>10.965579999999999</v>
       </c>
       <c r="L70" s="3">
-        <v>16.548469999999998</v>
+        <v>25.921099999999999</v>
       </c>
       <c r="M70" s="3">
-        <v>4.8528130000000003</v>
+        <v>7.7095739999999999</v>
       </c>
       <c r="N70" s="3">
-        <v>0.82879930000000002</v>
+        <v>0.82890039999999998</v>
       </c>
       <c r="O70" s="3">
-        <v>992.40899999999999</v>
+        <v>992.43489999999997</v>
       </c>
       <c r="P70" s="3">
         <v>46.90444591</v>
@@ -3785,49 +4781,49 @@
     </row>
     <row r="71" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
-        <v>45119.468217592592</v>
+        <v>45119.468460648146</v>
       </c>
       <c r="B71" s="3">
-        <v>242.15020000000001</v>
+        <v>2135.1979999999999</v>
       </c>
       <c r="C71" s="3">
-        <v>6.2101459999999999</v>
+        <v>6.2192049999999997</v>
       </c>
       <c r="D71" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E71" s="3">
-        <v>6.3820409999999994E-2</v>
+        <v>6.3894430000000002E-2</v>
       </c>
       <c r="F71" s="3">
         <v>0</v>
       </c>
       <c r="G71" s="3">
-        <v>0.99864949999999997</v>
+        <v>0.99866120000000003</v>
       </c>
       <c r="H71" s="5">
-        <v>4.1485279999999999E-5</v>
+        <v>4.154467E-5</v>
       </c>
       <c r="I71" s="3">
-        <v>0.50755709999999998</v>
+        <v>0.57317010000000002</v>
       </c>
       <c r="J71" s="3">
-        <v>17.719470000000001</v>
+        <v>17.667059999999999</v>
       </c>
       <c r="K71" s="3">
-        <v>6.9350560000000003</v>
+        <v>11.02572</v>
       </c>
       <c r="L71" s="3">
-        <v>16.62397</v>
+        <v>26.059830000000002</v>
       </c>
       <c r="M71" s="3">
-        <v>4.8758299999999997</v>
+        <v>7.7518529999999997</v>
       </c>
       <c r="N71" s="3">
-        <v>0.82856640000000004</v>
+        <v>0.82866169999999995</v>
       </c>
       <c r="O71" s="3">
-        <v>992.40909999999997</v>
+        <v>992.43650000000002</v>
       </c>
       <c r="P71" s="3">
         <v>46.90444591</v>
@@ -3839,49 +4835,49 @@
     </row>
     <row r="72" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
-        <v>45119.468229166669</v>
+        <v>45119.468472222223</v>
       </c>
       <c r="B72" s="3">
-        <v>319.59429999999998</v>
+        <v>2174.1950000000002</v>
       </c>
       <c r="C72" s="3">
-        <v>6.1990569999999998</v>
+        <v>6.2238290000000003</v>
       </c>
       <c r="D72" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E72" s="3">
-        <v>6.3838140000000002E-2</v>
+        <v>6.3894960000000001E-2</v>
       </c>
       <c r="F72" s="3">
         <v>0</v>
       </c>
       <c r="G72" s="3">
-        <v>0.99865139999999997</v>
+        <v>0.99866129999999997</v>
       </c>
       <c r="H72" s="5">
-        <v>4.1495049999999998E-5</v>
+        <v>4.1545409999999998E-5</v>
       </c>
       <c r="I72" s="3">
-        <v>0.45169239999999999</v>
+        <v>0.57901380000000002</v>
       </c>
       <c r="J72" s="3">
-        <v>17.71726</v>
+        <v>17.66657</v>
       </c>
       <c r="K72" s="3">
-        <v>7.3865660000000002</v>
+        <v>11.08586</v>
       </c>
       <c r="L72" s="3">
-        <v>17.665040000000001</v>
+        <v>26.198550000000001</v>
       </c>
       <c r="M72" s="3">
-        <v>5.1932729999999996</v>
+        <v>7.7941330000000004</v>
       </c>
       <c r="N72" s="3">
-        <v>0.82835270000000005</v>
+        <v>0.82842309999999997</v>
       </c>
       <c r="O72" s="3">
-        <v>992.35879999999997</v>
+        <v>992.43820000000005</v>
       </c>
       <c r="P72" s="3">
         <v>46.90444591</v>
@@ -3893,49 +4889,49 @@
     </row>
     <row r="73" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
-        <v>45119.468240740738</v>
+        <v>45119.4684837963</v>
       </c>
       <c r="B73" s="3">
-        <v>324.38200000000001</v>
+        <v>1873.181</v>
       </c>
       <c r="C73" s="3">
-        <v>6.1963929999999996</v>
+        <v>6.2797739999999997</v>
       </c>
       <c r="D73" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E73" s="3">
-        <v>6.3839140000000003E-2</v>
+        <v>6.3916210000000001E-2</v>
       </c>
       <c r="F73" s="3">
         <v>0</v>
       </c>
       <c r="G73" s="3">
-        <v>0.99865150000000003</v>
+        <v>0.99866160000000004</v>
       </c>
       <c r="H73" s="5">
-        <v>4.1495639999999999E-5</v>
+        <v>4.1547069999999999E-5</v>
       </c>
       <c r="I73" s="3">
-        <v>0.44949230000000001</v>
+        <v>0.53784319999999997</v>
       </c>
       <c r="J73" s="3">
-        <v>17.71696</v>
+        <v>17.653269999999999</v>
       </c>
       <c r="K73" s="3">
-        <v>7.421983</v>
+        <v>11.42858</v>
       </c>
       <c r="L73" s="3">
-        <v>17.74671</v>
+        <v>26.989070000000002</v>
       </c>
       <c r="M73" s="3">
-        <v>5.2181740000000003</v>
+        <v>8.035088</v>
       </c>
       <c r="N73" s="3">
-        <v>0.82818009999999997</v>
+        <v>0.82046439999999998</v>
       </c>
       <c r="O73" s="3">
-        <v>992.35630000000003</v>
+        <v>992.36940000000004</v>
       </c>
       <c r="P73" s="3">
         <v>46.90444591</v>
@@ -3947,49 +4943,49 @@
     </row>
     <row r="74" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
-        <v>45119.468252314815</v>
+        <v>45119.468495370369</v>
       </c>
       <c r="B74" s="3">
-        <v>329.1696</v>
+        <v>1864.4970000000001</v>
       </c>
       <c r="C74" s="3">
-        <v>6.1937300000000004</v>
+        <v>6.2843749999999998</v>
       </c>
       <c r="D74" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E74" s="3">
-        <v>6.3840140000000004E-2</v>
+        <v>6.3917340000000003E-2</v>
       </c>
       <c r="F74" s="3">
         <v>0</v>
       </c>
       <c r="G74" s="3">
-        <v>0.99865159999999997</v>
+        <v>0.99866169999999999</v>
       </c>
       <c r="H74" s="5">
-        <v>4.149623E-5</v>
+        <v>4.1547449999999998E-5</v>
       </c>
       <c r="I74" s="3">
-        <v>0.44729229999999998</v>
+        <v>0.53922139999999996</v>
       </c>
       <c r="J74" s="3">
-        <v>17.716660000000001</v>
+        <v>17.652480000000001</v>
       </c>
       <c r="K74" s="3">
-        <v>7.4573999999999998</v>
+        <v>11.471869999999999</v>
       </c>
       <c r="L74" s="3">
-        <v>17.828389999999999</v>
+        <v>27.088920000000002</v>
       </c>
       <c r="M74" s="3">
-        <v>5.243074</v>
+        <v>8.0655249999999992</v>
       </c>
       <c r="N74" s="3">
-        <v>0.82800750000000001</v>
+        <v>0.81988159999999999</v>
       </c>
       <c r="O74" s="3">
-        <v>992.35379999999998</v>
+        <v>992.36649999999997</v>
       </c>
       <c r="P74" s="3">
         <v>46.90444591</v>
@@ -4001,49 +4997,49 @@
     </row>
     <row r="75" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
-        <v>45119.468263888892</v>
+        <v>45119.468506944446</v>
       </c>
       <c r="B75" s="3">
-        <v>333.9572</v>
+        <v>1855.8130000000001</v>
       </c>
       <c r="C75" s="3">
-        <v>6.1910660000000002</v>
+        <v>6.288977</v>
       </c>
       <c r="D75" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E75" s="3">
-        <v>6.3841129999999996E-2</v>
+        <v>6.3918470000000005E-2</v>
       </c>
       <c r="F75" s="3">
         <v>0</v>
       </c>
       <c r="G75" s="3">
-        <v>0.99865170000000003</v>
+        <v>0.99866180000000004</v>
       </c>
       <c r="H75" s="5">
-        <v>4.1496830000000001E-5</v>
+        <v>4.1547810000000003E-5</v>
       </c>
       <c r="I75" s="3">
-        <v>0.44509219999999999</v>
+        <v>0.54059959999999996</v>
       </c>
       <c r="J75" s="3">
-        <v>17.716360000000002</v>
+        <v>17.651700000000002</v>
       </c>
       <c r="K75" s="3">
-        <v>7.4928169999999996</v>
+        <v>11.51516</v>
       </c>
       <c r="L75" s="3">
-        <v>17.910060000000001</v>
+        <v>27.188790000000001</v>
       </c>
       <c r="M75" s="3">
-        <v>5.2679749999999999</v>
+        <v>8.0959620000000001</v>
       </c>
       <c r="N75" s="3">
-        <v>0.82783499999999999</v>
+        <v>0.81929870000000005</v>
       </c>
       <c r="O75" s="3">
-        <v>992.35130000000004</v>
+        <v>992.36369999999999</v>
       </c>
       <c r="P75" s="3">
         <v>46.90444591</v>
@@ -4055,49 +5051,49 @@
     </row>
     <row r="76" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
-        <v>45119.468275462961</v>
+        <v>45119.468518518515</v>
       </c>
       <c r="B76" s="3">
-        <v>324.56889999999999</v>
+        <v>2260.96</v>
       </c>
       <c r="C76" s="3">
-        <v>6.2601769999999997</v>
+        <v>6.2711240000000004</v>
       </c>
       <c r="D76" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E76" s="3">
-        <v>6.3845529999999998E-2</v>
+        <v>6.3933149999999994E-2</v>
       </c>
       <c r="F76" s="3">
         <v>0</v>
       </c>
       <c r="G76" s="3">
-        <v>0.99865230000000005</v>
+        <v>0.99866359999999998</v>
       </c>
       <c r="H76" s="5">
-        <v>4.1499640000000001E-5</v>
+        <v>4.1556990000000001E-5</v>
       </c>
       <c r="I76" s="3">
-        <v>0.51469450000000005</v>
+        <v>0.5058163</v>
       </c>
       <c r="J76" s="3">
-        <v>17.702380000000002</v>
+        <v>17.639710000000001</v>
       </c>
       <c r="K76" s="3">
-        <v>7.7365830000000004</v>
+        <v>11.9049</v>
       </c>
       <c r="L76" s="3">
-        <v>19.184339999999999</v>
+        <v>28.087440000000001</v>
       </c>
       <c r="M76" s="3">
-        <v>5.6562849999999996</v>
+        <v>8.4333349999999996</v>
       </c>
       <c r="N76" s="3">
-        <v>0.83597949999999999</v>
+        <v>0.83478839999999999</v>
       </c>
       <c r="O76" s="3">
-        <v>992.40419999999995</v>
+        <v>992.41380000000004</v>
       </c>
       <c r="P76" s="3">
         <v>46.90444591</v>
@@ -4109,49 +5105,49 @@
     </row>
     <row r="77" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
-        <v>45119.468287037038</v>
+        <v>45119.468530092592</v>
       </c>
       <c r="B77" s="3">
-        <v>325.85680000000002</v>
+        <v>2276.2429999999999</v>
       </c>
       <c r="C77" s="3">
-        <v>6.2634280000000002</v>
+        <v>6.2714369999999997</v>
       </c>
       <c r="D77" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E77" s="3">
-        <v>6.3846159999999999E-2</v>
+        <v>6.3934389999999994E-2</v>
       </c>
       <c r="F77" s="3">
         <v>0</v>
       </c>
       <c r="G77" s="3">
-        <v>0.9986524</v>
+        <v>0.99866370000000004</v>
       </c>
       <c r="H77" s="5">
-        <v>4.150001E-5</v>
+        <v>4.1557519999999998E-5</v>
       </c>
       <c r="I77" s="3">
-        <v>0.51702099999999995</v>
+        <v>0.5031523</v>
       </c>
       <c r="J77" s="3">
-        <v>17.701609999999999</v>
+        <v>17.638780000000001</v>
       </c>
       <c r="K77" s="3">
-        <v>7.7595929999999997</v>
+        <v>11.933339999999999</v>
       </c>
       <c r="L77" s="3">
-        <v>19.273980000000002</v>
+        <v>28.153009999999998</v>
       </c>
       <c r="M77" s="3">
-        <v>5.683605</v>
+        <v>8.4566549999999996</v>
       </c>
       <c r="N77" s="3">
-        <v>0.8363893</v>
+        <v>0.83542930000000004</v>
       </c>
       <c r="O77" s="3">
-        <v>992.40570000000002</v>
+        <v>992.41499999999996</v>
       </c>
       <c r="P77" s="3">
         <v>46.90444591</v>
@@ -4163,49 +5159,49 @@
     </row>
     <row r="78" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
-        <v>45119.468298611115</v>
+        <v>45119.468541666669</v>
       </c>
       <c r="B78" s="3">
-        <v>327.1447</v>
+        <v>2291.5259999999998</v>
       </c>
       <c r="C78" s="3">
-        <v>6.26668</v>
+        <v>6.2717489999999998</v>
       </c>
       <c r="D78" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E78" s="3">
-        <v>6.384679E-2</v>
+        <v>6.3935619999999999E-2</v>
       </c>
       <c r="F78" s="3">
         <v>0</v>
       </c>
       <c r="G78" s="3">
-        <v>0.99865250000000005</v>
+        <v>0.99866379999999999</v>
       </c>
       <c r="H78" s="5">
-        <v>4.1500379999999999E-5</v>
+        <v>4.155804E-5</v>
       </c>
       <c r="I78" s="3">
-        <v>0.51934749999999996</v>
+        <v>0.50048820000000005</v>
       </c>
       <c r="J78" s="3">
-        <v>17.700839999999999</v>
+        <v>17.63786</v>
       </c>
       <c r="K78" s="3">
-        <v>7.7826019999999998</v>
+        <v>11.96177</v>
       </c>
       <c r="L78" s="3">
-        <v>19.363610000000001</v>
+        <v>28.21857</v>
       </c>
       <c r="M78" s="3">
-        <v>5.7109249999999996</v>
+        <v>8.4799740000000003</v>
       </c>
       <c r="N78" s="3">
-        <v>0.83679919999999997</v>
+        <v>0.83607010000000004</v>
       </c>
       <c r="O78" s="3">
-        <v>992.40729999999996</v>
+        <v>992.41610000000003</v>
       </c>
       <c r="P78" s="3">
         <v>46.90444591</v>
@@ -4217,49 +5213,49 @@
     </row>
     <row r="79" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
-        <v>45119.468310185184</v>
+        <v>45119.468553240738</v>
       </c>
       <c r="B79" s="3">
-        <v>371.22919999999999</v>
+        <v>3418.8090000000002</v>
       </c>
       <c r="C79" s="3">
-        <v>6.0522479999999996</v>
+        <v>6.2974410000000001</v>
       </c>
       <c r="D79" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E79" s="3">
-        <v>6.3855720000000005E-2</v>
+        <v>6.3947519999999994E-2</v>
       </c>
       <c r="F79" s="3">
         <v>0</v>
       </c>
       <c r="G79" s="3">
-        <v>0.99865369999999998</v>
+        <v>0.99866529999999998</v>
       </c>
       <c r="H79" s="5">
-        <v>4.150621E-5</v>
+        <v>4.1565890000000001E-5</v>
       </c>
       <c r="I79" s="3">
-        <v>0.47457240000000001</v>
+        <v>0.48631410000000003</v>
       </c>
       <c r="J79" s="3">
-        <v>17.702680000000001</v>
+        <v>17.629670000000001</v>
       </c>
       <c r="K79" s="3">
-        <v>8.5788580000000003</v>
+        <v>12.50836</v>
       </c>
       <c r="L79" s="3">
-        <v>20.497299999999999</v>
+        <v>29.479199999999999</v>
       </c>
       <c r="M79" s="3">
-        <v>6.0563330000000004</v>
+        <v>8.8019909999999992</v>
       </c>
       <c r="N79" s="3">
-        <v>0.82103009999999998</v>
+        <v>0.82866479999999998</v>
       </c>
       <c r="O79" s="3">
-        <v>992.41700000000003</v>
+        <v>992.40060000000005</v>
       </c>
       <c r="P79" s="3">
         <v>46.90444591</v>
@@ -4271,49 +5267,49 @@
     </row>
     <row r="80" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
-        <v>45119.468321759261</v>
+        <v>45119.468564814815</v>
       </c>
       <c r="B80" s="3">
-        <v>373.35120000000001</v>
+        <v>3487.8470000000002</v>
       </c>
       <c r="C80" s="3">
-        <v>6.0428230000000003</v>
+        <v>6.2984600000000004</v>
       </c>
       <c r="D80" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E80" s="3">
-        <v>6.3856280000000001E-2</v>
+        <v>6.3948469999999993E-2</v>
       </c>
       <c r="F80" s="3">
         <v>0</v>
       </c>
       <c r="G80" s="3">
-        <v>0.99865369999999998</v>
+        <v>0.99866549999999998</v>
       </c>
       <c r="H80" s="5">
-        <v>4.1506579999999999E-5</v>
+        <v>4.1566510000000003E-5</v>
       </c>
       <c r="I80" s="3">
-        <v>0.4737944</v>
+        <v>0.48484909999999998</v>
       </c>
       <c r="J80" s="3">
-        <v>17.702459999999999</v>
+        <v>17.628969999999999</v>
       </c>
       <c r="K80" s="3">
-        <v>8.6253650000000004</v>
+        <v>12.546340000000001</v>
       </c>
       <c r="L80" s="3">
-        <v>20.58456</v>
+        <v>29.566780000000001</v>
       </c>
       <c r="M80" s="3">
-        <v>6.0829199999999997</v>
+        <v>8.8267229999999994</v>
       </c>
       <c r="N80" s="3">
-        <v>0.82040489999999999</v>
+        <v>0.82859839999999996</v>
       </c>
       <c r="O80" s="3">
-        <v>992.41859999999997</v>
+        <v>992.4008</v>
       </c>
       <c r="P80" s="3">
         <v>46.90444591</v>
@@ -4325,49 +5321,49 @@
     </row>
     <row r="81" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
-        <v>45119.468333333331</v>
+        <v>45119.468576388892</v>
       </c>
       <c r="B81" s="3">
-        <v>375.47329999999999</v>
+        <v>3556.884</v>
       </c>
       <c r="C81" s="3">
-        <v>6.033398</v>
+        <v>6.2994789999999998</v>
       </c>
       <c r="D81" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E81" s="3">
-        <v>6.3856860000000001E-2</v>
+        <v>6.3949430000000002E-2</v>
       </c>
       <c r="F81" s="3">
         <v>0</v>
       </c>
       <c r="G81" s="3">
-        <v>0.99865380000000004</v>
+        <v>0.99866560000000004</v>
       </c>
       <c r="H81" s="5">
-        <v>4.1506959999999998E-5</v>
+        <v>4.1567129999999999E-5</v>
       </c>
       <c r="I81" s="3">
-        <v>0.4730164</v>
+        <v>0.48338419999999999</v>
       </c>
       <c r="J81" s="3">
-        <v>17.70224</v>
+        <v>17.62828</v>
       </c>
       <c r="K81" s="3">
-        <v>8.6718720000000005</v>
+        <v>12.58432</v>
       </c>
       <c r="L81" s="3">
-        <v>20.67182</v>
+        <v>29.65437</v>
       </c>
       <c r="M81" s="3">
-        <v>6.1095079999999999</v>
+        <v>8.8514549999999996</v>
       </c>
       <c r="N81" s="3">
-        <v>0.81977979999999995</v>
+        <v>0.82853189999999999</v>
       </c>
       <c r="O81" s="3">
-        <v>992.42020000000002</v>
+        <v>992.40110000000004</v>
       </c>
       <c r="P81" s="3">
         <v>46.90444591</v>
@@ -4379,49 +5375,49 @@
     </row>
     <row r="82" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
-        <v>45119.468344907407</v>
+        <v>45119.468587962961</v>
       </c>
       <c r="B82" s="3">
-        <v>467.12670000000003</v>
+        <v>3294.1019999999999</v>
       </c>
       <c r="C82" s="3">
-        <v>6.0676880000000004</v>
+        <v>6.2026519999999996</v>
       </c>
       <c r="D82" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E82" s="3">
-        <v>6.3868820000000007E-2</v>
+        <v>6.3963039999999999E-2</v>
       </c>
       <c r="F82" s="3">
         <v>0</v>
       </c>
       <c r="G82" s="3">
-        <v>0.99865530000000002</v>
+        <v>0.99866730000000004</v>
       </c>
       <c r="H82" s="5">
-        <v>4.151474E-5</v>
+        <v>4.1575980000000002E-5</v>
       </c>
       <c r="I82" s="3">
-        <v>0.53551490000000002</v>
+        <v>0.43864809999999999</v>
       </c>
       <c r="J82" s="3">
-        <v>17.685669999999998</v>
+        <v>17.618490000000001</v>
       </c>
       <c r="K82" s="3">
-        <v>9.0408609999999996</v>
+        <v>12.905279999999999</v>
       </c>
       <c r="L82" s="3">
-        <v>21.5015</v>
+        <v>30.394549999999999</v>
       </c>
       <c r="M82" s="3">
-        <v>6.3623479999999999</v>
+        <v>9.0754870000000007</v>
       </c>
       <c r="N82" s="3">
-        <v>0.83537839999999997</v>
+        <v>0.82826619999999995</v>
       </c>
       <c r="O82" s="3">
-        <v>992.41060000000004</v>
+        <v>992.43499999999995</v>
       </c>
       <c r="P82" s="3">
         <v>46.90444591</v>
@@ -4433,49 +5429,49 @@
     </row>
     <row r="83" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
-        <v>45119.468356481484</v>
+        <v>45119.468599537038</v>
       </c>
       <c r="B83" s="3">
-        <v>472.92829999999998</v>
+        <v>3304.6350000000002</v>
       </c>
       <c r="C83" s="3">
-        <v>6.0650339999999998</v>
+        <v>6.1979829999999998</v>
       </c>
       <c r="D83" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E83" s="3">
-        <v>6.3869659999999995E-2</v>
+        <v>6.3964049999999995E-2</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
       </c>
       <c r="G83" s="3">
-        <v>0.99865539999999997</v>
+        <v>0.99866739999999998</v>
       </c>
       <c r="H83" s="5">
-        <v>4.1515279999999997E-5</v>
+        <v>4.157663E-5</v>
       </c>
       <c r="I83" s="3">
-        <v>0.53791840000000002</v>
+        <v>0.43590319999999999</v>
       </c>
       <c r="J83" s="3">
-        <v>17.684809999999999</v>
+        <v>17.61777</v>
       </c>
       <c r="K83" s="3">
-        <v>9.0776260000000004</v>
+        <v>12.93477</v>
       </c>
       <c r="L83" s="3">
-        <v>21.571010000000001</v>
+        <v>30.462569999999999</v>
       </c>
       <c r="M83" s="3">
-        <v>6.3835319999999998</v>
+        <v>9.0947680000000002</v>
       </c>
       <c r="N83" s="3">
-        <v>0.83587800000000001</v>
+        <v>0.82808809999999999</v>
       </c>
       <c r="O83" s="3">
-        <v>992.41030000000001</v>
+        <v>992.43650000000002</v>
       </c>
       <c r="P83" s="3">
         <v>46.90444591</v>
@@ -4487,49 +5483,49 @@
     </row>
     <row r="84" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
-        <v>45119.468368055554</v>
+        <v>45119.468611111108</v>
       </c>
       <c r="B84" s="3">
-        <v>478.73</v>
+        <v>3315.1689999999999</v>
       </c>
       <c r="C84" s="3">
-        <v>6.0623800000000001</v>
+        <v>6.193314</v>
       </c>
       <c r="D84" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E84" s="3">
-        <v>6.3870490000000002E-2</v>
+        <v>6.3965049999999996E-2</v>
       </c>
       <c r="F84" s="3">
         <v>0</v>
       </c>
       <c r="G84" s="3">
-        <v>0.99865550000000003</v>
+        <v>0.99866750000000004</v>
       </c>
       <c r="H84" s="5">
-        <v>4.1515820000000001E-5</v>
+        <v>4.1577279999999998E-5</v>
       </c>
       <c r="I84" s="3">
-        <v>0.54032210000000003</v>
+        <v>0.43315819999999999</v>
       </c>
       <c r="J84" s="3">
-        <v>17.683959999999999</v>
+        <v>17.617059999999999</v>
       </c>
       <c r="K84" s="3">
-        <v>9.1143909999999995</v>
+        <v>12.964259999999999</v>
       </c>
       <c r="L84" s="3">
-        <v>21.640529999999998</v>
+        <v>30.53059</v>
       </c>
       <c r="M84" s="3">
-        <v>6.4047150000000004</v>
+        <v>9.1140489999999996</v>
       </c>
       <c r="N84" s="3">
-        <v>0.8363775</v>
+        <v>0.82791000000000003</v>
       </c>
       <c r="O84" s="3">
-        <v>992.41</v>
+        <v>992.43790000000001</v>
       </c>
       <c r="P84" s="3">
         <v>46.90444591</v>
@@ -4541,49 +5537,49 @@
     </row>
     <row r="85" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
-        <v>45119.46837962963</v>
+        <v>45119.468622685185</v>
       </c>
       <c r="B85" s="3">
-        <v>584.9547</v>
+        <v>4296.9459999999999</v>
       </c>
       <c r="C85" s="3">
-        <v>6.1003550000000004</v>
+        <v>6.1782130000000004</v>
       </c>
       <c r="D85" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E85" s="3">
-        <v>6.3867519999999997E-2</v>
+        <v>6.3975889999999994E-2</v>
       </c>
       <c r="F85" s="3">
         <v>0</v>
       </c>
       <c r="G85" s="3">
-        <v>0.99865749999999998</v>
+        <v>0.99866920000000003</v>
       </c>
       <c r="H85" s="5">
-        <v>4.152587E-5</v>
+        <v>4.1585789999999997E-5</v>
       </c>
       <c r="I85" s="3">
-        <v>0.54011600000000004</v>
+        <v>0.46975640000000002</v>
       </c>
       <c r="J85" s="3">
-        <v>17.685919999999999</v>
+        <v>17.60943</v>
       </c>
       <c r="K85" s="3">
-        <v>9.7377070000000003</v>
+        <v>13.687189999999999</v>
       </c>
       <c r="L85" s="3">
-        <v>23.0885</v>
+        <v>32.198430000000002</v>
       </c>
       <c r="M85" s="3">
-        <v>6.8462899999999998</v>
+        <v>9.6230530000000005</v>
       </c>
       <c r="N85" s="3">
-        <v>0.82869999999999999</v>
+        <v>0.82024850000000005</v>
       </c>
       <c r="O85" s="3">
-        <v>992.40989999999999</v>
+        <v>992.42989999999998</v>
       </c>
       <c r="P85" s="3">
         <v>46.90444591</v>
@@ -4595,49 +5591,49 @@
     </row>
     <row r="86" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
-        <v>45119.468391203707</v>
+        <v>45119.468634259261</v>
       </c>
       <c r="B86" s="3">
-        <v>592.59389999999996</v>
+        <v>4343.71</v>
       </c>
       <c r="C86" s="3">
-        <v>6.1030259999999998</v>
+        <v>6.1752200000000004</v>
       </c>
       <c r="D86" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E86" s="3">
-        <v>6.3867640000000003E-2</v>
+        <v>6.3976779999999997E-2</v>
       </c>
       <c r="F86" s="3">
         <v>0</v>
       </c>
       <c r="G86" s="3">
-        <v>0.99865760000000003</v>
+        <v>0.99866940000000004</v>
       </c>
       <c r="H86" s="5">
-        <v>4.1526570000000001E-5</v>
+        <v>4.1586450000000002E-5</v>
       </c>
       <c r="I86" s="3">
-        <v>0.54152889999999998</v>
+        <v>0.47068690000000002</v>
       </c>
       <c r="J86" s="3">
-        <v>17.685649999999999</v>
+        <v>17.608799999999999</v>
       </c>
       <c r="K86" s="3">
-        <v>9.7791149999999991</v>
+        <v>13.733219999999999</v>
       </c>
       <c r="L86" s="3">
-        <v>23.183979999999998</v>
+        <v>32.304600000000001</v>
       </c>
       <c r="M86" s="3">
-        <v>6.8754010000000001</v>
+        <v>9.6554120000000001</v>
       </c>
       <c r="N86" s="3">
-        <v>0.82864879999999996</v>
+        <v>0.81983499999999998</v>
       </c>
       <c r="O86" s="3">
-        <v>992.40970000000004</v>
+        <v>992.43020000000001</v>
       </c>
       <c r="P86" s="3">
         <v>46.90444591</v>
@@ -4649,49 +5645,49 @@
     </row>
     <row r="87" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
-        <v>45119.468402777777</v>
+        <v>45119.468645833331</v>
       </c>
       <c r="B87" s="3">
-        <v>600.23320000000001</v>
+        <v>4390.4750000000004</v>
       </c>
       <c r="C87" s="3">
-        <v>6.1056980000000003</v>
+        <v>6.1722260000000002</v>
       </c>
       <c r="D87" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E87" s="3">
-        <v>6.3867770000000004E-2</v>
+        <v>6.397767E-2</v>
       </c>
       <c r="F87" s="3">
         <v>0</v>
       </c>
       <c r="G87" s="3">
-        <v>0.99865769999999998</v>
+        <v>0.99866949999999999</v>
       </c>
       <c r="H87" s="5">
-        <v>4.1527270000000003E-5</v>
+        <v>4.1587110000000001E-5</v>
       </c>
       <c r="I87" s="3">
-        <v>0.54294169999999997</v>
+        <v>0.47161750000000002</v>
       </c>
       <c r="J87" s="3">
-        <v>17.685369999999999</v>
+        <v>17.608170000000001</v>
       </c>
       <c r="K87" s="3">
-        <v>9.8205209999999994</v>
+        <v>13.77924</v>
       </c>
       <c r="L87" s="3">
-        <v>23.279450000000001</v>
+        <v>32.410780000000003</v>
       </c>
       <c r="M87" s="3">
-        <v>6.9045139999999998</v>
+        <v>9.6877709999999997</v>
       </c>
       <c r="N87" s="3">
-        <v>0.82859760000000005</v>
+        <v>0.81942159999999997</v>
       </c>
       <c r="O87" s="3">
-        <v>992.40949999999998</v>
+        <v>992.43060000000003</v>
       </c>
       <c r="P87" s="3">
         <v>46.90444591</v>
@@ -4703,49 +5699,49 @@
     </row>
     <row r="88" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
-        <v>45119.468414351853</v>
+        <v>45119.468657407408</v>
       </c>
       <c r="B88" s="3">
-        <v>1687.615</v>
+        <v>4082.355</v>
       </c>
       <c r="C88" s="3">
-        <v>6.1349169999999997</v>
+        <v>6.2288569999999996</v>
       </c>
       <c r="D88" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E88" s="3">
-        <v>6.3891089999999998E-2</v>
+        <v>6.3995640000000006E-2</v>
       </c>
       <c r="F88" s="3">
         <v>0</v>
       </c>
       <c r="G88" s="3">
-        <v>0.99865839999999995</v>
+        <v>0.99867150000000005</v>
       </c>
       <c r="H88" s="5">
-        <v>4.1530589999999998E-5</v>
+        <v>4.1597349999999999E-5</v>
       </c>
       <c r="I88" s="3">
-        <v>0.41826560000000002</v>
+        <v>0.4731727</v>
       </c>
       <c r="J88" s="3">
-        <v>17.672830000000001</v>
+        <v>17.606560000000002</v>
       </c>
       <c r="K88" s="3">
-        <v>9.7993690000000004</v>
+        <v>13.99282</v>
       </c>
       <c r="L88" s="3">
-        <v>23.230979999999999</v>
+        <v>32.902549999999998</v>
       </c>
       <c r="M88" s="3">
-        <v>6.8896420000000003</v>
+        <v>9.8379340000000006</v>
       </c>
       <c r="N88" s="3">
-        <v>0.83608309999999997</v>
+        <v>0.81927510000000003</v>
       </c>
       <c r="O88" s="3">
-        <v>992.40099999999995</v>
+        <v>992.40409999999997</v>
       </c>
       <c r="P88" s="3">
         <v>46.90444591</v>
@@ -4757,49 +5753,49 @@
     </row>
     <row r="89" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
-        <v>45119.468425925923</v>
+        <v>45119.468668981484</v>
       </c>
       <c r="B89" s="3">
-        <v>1746.547</v>
+        <v>4087.2510000000002</v>
       </c>
       <c r="C89" s="3">
-        <v>6.1372410000000004</v>
+        <v>6.2315610000000001</v>
       </c>
       <c r="D89" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E89" s="3">
-        <v>6.3892249999999998E-2</v>
+        <v>6.3996869999999997E-2</v>
       </c>
       <c r="F89" s="3">
         <v>0</v>
       </c>
       <c r="G89" s="3">
-        <v>0.9986585</v>
+        <v>0.99867159999999999</v>
       </c>
       <c r="H89" s="5">
-        <v>4.1530999999999999E-5</v>
+        <v>4.1598089999999997E-5</v>
       </c>
       <c r="I89" s="3">
-        <v>0.41184150000000003</v>
+        <v>0.47403289999999998</v>
       </c>
       <c r="J89" s="3">
-        <v>17.6722</v>
+        <v>17.606300000000001</v>
       </c>
       <c r="K89" s="3">
-        <v>9.8127130000000005</v>
+        <v>14.02046</v>
       </c>
       <c r="L89" s="3">
-        <v>23.261759999999999</v>
+        <v>32.966259999999998</v>
       </c>
       <c r="M89" s="3">
-        <v>6.8990239999999998</v>
+        <v>9.8573660000000007</v>
       </c>
       <c r="N89" s="3">
-        <v>0.83631440000000001</v>
+        <v>0.81909790000000005</v>
       </c>
       <c r="O89" s="3">
-        <v>992.40049999999997</v>
+        <v>992.40250000000003</v>
       </c>
       <c r="P89" s="3">
         <v>46.90444591</v>
@@ -4811,49 +5807,49 @@
     </row>
     <row r="90" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
-        <v>45119.4684375</v>
+        <v>45119.468680555554</v>
       </c>
       <c r="B90" s="3">
-        <v>1805.479</v>
+        <v>4092.1460000000002</v>
       </c>
       <c r="C90" s="3">
-        <v>6.1395650000000002</v>
+        <v>6.2342639999999996</v>
       </c>
       <c r="D90" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E90" s="3">
-        <v>6.3893420000000006E-2</v>
+        <v>6.3998079999999999E-2</v>
       </c>
       <c r="F90" s="3">
         <v>0</v>
       </c>
       <c r="G90" s="3">
-        <v>0.99865859999999995</v>
+        <v>0.9986718</v>
       </c>
       <c r="H90" s="5">
-        <v>4.15314E-5</v>
+        <v>4.1598840000000002E-5</v>
       </c>
       <c r="I90" s="3">
-        <v>0.40541739999999998</v>
+        <v>0.47489310000000001</v>
       </c>
       <c r="J90" s="3">
-        <v>17.671579999999999</v>
+        <v>17.60604</v>
       </c>
       <c r="K90" s="3">
-        <v>9.8260570000000005</v>
+        <v>14.0481</v>
       </c>
       <c r="L90" s="3">
-        <v>23.292549999999999</v>
+        <v>33.029969999999999</v>
       </c>
       <c r="M90" s="3">
-        <v>6.9084060000000003</v>
+        <v>9.8767980000000009</v>
       </c>
       <c r="N90" s="3">
-        <v>0.83654580000000001</v>
+        <v>0.8189208</v>
       </c>
       <c r="O90" s="3">
-        <v>992.40009999999995</v>
+        <v>992.40089999999998</v>
       </c>
       <c r="P90" s="3">
         <v>46.90444591</v>
@@ -4865,1569 +5861,435 @@
     </row>
     <row r="91" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
-        <v>45119.468449074076</v>
+        <v>45119.468692129631</v>
       </c>
       <c r="B91" s="3">
-        <v>2096.2020000000002</v>
+        <v>2120.2829999999999</v>
       </c>
       <c r="C91" s="3">
-        <v>6.2145809999999999</v>
+        <v>6.1157029999999999</v>
       </c>
       <c r="D91" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E91" s="3">
-        <v>6.3893900000000003E-2</v>
+        <v>6.3999799999999996E-2</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
       <c r="G91" s="3">
-        <v>0.99866100000000002</v>
+        <v>0.99867189999999995</v>
       </c>
       <c r="H91" s="5">
-        <v>4.1543930000000003E-5</v>
+        <v>4.1599930000000003E-5</v>
       </c>
       <c r="I91" s="3">
-        <v>0.56732629999999995</v>
+        <v>0.44915929999999998</v>
       </c>
       <c r="J91" s="3">
-        <v>17.667549999999999</v>
+        <v>17.594049999999999</v>
       </c>
       <c r="K91" s="3">
-        <v>10.965579999999999</v>
+        <v>14.613810000000001</v>
       </c>
       <c r="L91" s="3">
-        <v>25.921099999999999</v>
+        <v>34.33455</v>
       </c>
       <c r="M91" s="3">
-        <v>7.7095739999999999</v>
+        <v>10.52664</v>
       </c>
       <c r="N91" s="3">
-        <v>0.82890039999999998</v>
+        <v>0.81899999999999995</v>
       </c>
       <c r="O91" s="3">
-        <v>992.43489999999997</v>
+        <v>992.40060000000005</v>
       </c>
       <c r="P91" s="3">
-        <v>46.90444591</v>
+        <v>46.904434469999998</v>
       </c>
       <c r="Q91" s="3">
-        <v>-91.035976959999999</v>
+        <v>-91.035981050000004</v>
       </c>
       <c r="R91" s="3"/>
     </row>
     <row r="92" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
-        <v>45119.468460648146</v>
+        <v>45119.4687037037</v>
       </c>
       <c r="B92" s="3">
-        <v>2135.1979999999999</v>
+        <v>2008.645</v>
       </c>
       <c r="C92" s="3">
-        <v>6.2192049999999997</v>
+        <v>6.1106579999999999</v>
       </c>
       <c r="D92" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E92" s="3">
-        <v>6.3894430000000002E-2</v>
+        <v>6.4000310000000005E-2</v>
       </c>
       <c r="F92" s="3">
         <v>0</v>
       </c>
       <c r="G92" s="3">
-        <v>0.99866120000000003</v>
+        <v>0.998672</v>
       </c>
       <c r="H92" s="5">
-        <v>4.154467E-5</v>
+        <v>4.1600220000000003E-5</v>
       </c>
       <c r="I92" s="3">
-        <v>0.57317010000000002</v>
+        <v>0.44781949999999998</v>
       </c>
       <c r="J92" s="3">
-        <v>17.667059999999999</v>
+        <v>17.59337</v>
       </c>
       <c r="K92" s="3">
-        <v>11.02572</v>
+        <v>14.648849999999999</v>
       </c>
       <c r="L92" s="3">
-        <v>26.059830000000002</v>
+        <v>34.415349999999997</v>
       </c>
       <c r="M92" s="3">
-        <v>7.7518529999999997</v>
+        <v>10.56466</v>
       </c>
       <c r="N92" s="3">
-        <v>0.82866169999999995</v>
+        <v>0.81899999999999995</v>
       </c>
       <c r="O92" s="3">
-        <v>992.43650000000002</v>
+        <v>992.4</v>
       </c>
       <c r="P92" s="3">
-        <v>46.90444591</v>
+        <v>46.904434469999998</v>
       </c>
       <c r="Q92" s="3">
-        <v>-91.035976959999999</v>
+        <v>-91.035981050000004</v>
       </c>
       <c r="R92" s="3"/>
     </row>
     <row r="93" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
-        <v>45119.468472222223</v>
+        <v>45119.468715277777</v>
       </c>
       <c r="B93" s="3">
-        <v>2174.1950000000002</v>
+        <v>1897.0070000000001</v>
       </c>
       <c r="C93" s="3">
-        <v>6.2238290000000003</v>
+        <v>6.105613</v>
       </c>
       <c r="D93" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E93" s="3">
-        <v>6.3894960000000001E-2</v>
+        <v>6.4000810000000005E-2</v>
       </c>
       <c r="F93" s="3">
         <v>0</v>
       </c>
       <c r="G93" s="3">
-        <v>0.99866129999999997</v>
+        <v>0.99867209999999995</v>
       </c>
       <c r="H93" s="5">
-        <v>4.1545409999999998E-5</v>
+        <v>4.1600510000000003E-5</v>
       </c>
       <c r="I93" s="3">
-        <v>0.57901380000000002</v>
+        <v>0.44647969999999998</v>
       </c>
       <c r="J93" s="3">
-        <v>17.66657</v>
+        <v>17.592700000000001</v>
       </c>
       <c r="K93" s="3">
-        <v>11.08586</v>
+        <v>14.6839</v>
       </c>
       <c r="L93" s="3">
-        <v>26.198550000000001</v>
+        <v>34.496139999999997</v>
       </c>
       <c r="M93" s="3">
-        <v>7.7941330000000004</v>
+        <v>10.602690000000001</v>
       </c>
       <c r="N93" s="3">
-        <v>0.82842309999999997</v>
+        <v>0.81899999999999995</v>
       </c>
       <c r="O93" s="3">
-        <v>992.43820000000005</v>
+        <v>992.39940000000001</v>
       </c>
       <c r="P93" s="3">
-        <v>46.90444591</v>
+        <v>46.904434469999998</v>
       </c>
       <c r="Q93" s="3">
-        <v>-91.035976959999999</v>
+        <v>-91.035981050000004</v>
       </c>
       <c r="R93" s="3"/>
     </row>
     <row r="94" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
-        <v>45119.4684837963</v>
+        <v>45119.468726851854</v>
       </c>
       <c r="B94" s="3">
-        <v>1873.181</v>
+        <v>1934.087</v>
       </c>
       <c r="C94" s="3">
-        <v>6.2797739999999997</v>
+        <v>6.1947770000000002</v>
       </c>
       <c r="D94" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E94" s="3">
-        <v>6.3916210000000001E-2</v>
+        <v>6.4027589999999995E-2</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
       <c r="G94" s="3">
-        <v>0.99866160000000004</v>
+        <v>0.99867550000000005</v>
       </c>
       <c r="H94" s="5">
-        <v>4.1547069999999999E-5</v>
+        <v>4.1617940000000003E-5</v>
       </c>
       <c r="I94" s="3">
-        <v>0.53784319999999997</v>
+        <v>0.39422210000000002</v>
       </c>
       <c r="J94" s="3">
-        <v>17.653269999999999</v>
+        <v>17.578199999999999</v>
       </c>
       <c r="K94" s="3">
-        <v>11.42858</v>
+        <v>15.517860000000001</v>
       </c>
       <c r="L94" s="3">
-        <v>26.989070000000002</v>
+        <v>36.4206</v>
       </c>
       <c r="M94" s="3">
-        <v>8.035088</v>
+        <v>10.94101</v>
       </c>
       <c r="N94" s="3">
-        <v>0.82046439999999998</v>
+        <v>0.81123599999999996</v>
       </c>
       <c r="O94" s="3">
-        <v>992.36940000000004</v>
+        <v>992.36519999999996</v>
       </c>
       <c r="P94" s="3">
-        <v>46.90444591</v>
+        <v>46.904434469999998</v>
       </c>
       <c r="Q94" s="3">
-        <v>-91.035976959999999</v>
+        <v>-91.035981050000004</v>
       </c>
       <c r="R94" s="3"/>
     </row>
     <row r="95" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
-        <v>45119.468495370369</v>
+        <v>45119.468738425923</v>
       </c>
       <c r="B95" s="3">
-        <v>1864.4970000000001</v>
+        <v>1893.7860000000001</v>
       </c>
       <c r="C95" s="3">
-        <v>6.2843749999999998</v>
+        <v>6.1970929999999997</v>
       </c>
       <c r="D95" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E95" s="3">
-        <v>6.3917340000000003E-2</v>
+        <v>6.4029100000000005E-2</v>
       </c>
       <c r="F95" s="3">
         <v>0</v>
       </c>
       <c r="G95" s="3">
-        <v>0.99866169999999999</v>
+        <v>0.9986756</v>
       </c>
       <c r="H95" s="5">
-        <v>4.1547449999999998E-5</v>
+        <v>4.1618910000000003E-5</v>
       </c>
       <c r="I95" s="3">
-        <v>0.53922139999999996</v>
+        <v>0.39083400000000001</v>
       </c>
       <c r="J95" s="3">
-        <v>17.652480000000001</v>
+        <v>17.57715</v>
       </c>
       <c r="K95" s="3">
-        <v>11.471869999999999</v>
+        <v>15.575620000000001</v>
       </c>
       <c r="L95" s="3">
-        <v>27.088920000000002</v>
+        <v>36.553879999999999</v>
       </c>
       <c r="M95" s="3">
-        <v>8.0655249999999992</v>
+        <v>10.973549999999999</v>
       </c>
       <c r="N95" s="3">
-        <v>0.81988159999999999</v>
+        <v>0.81081369999999997</v>
       </c>
       <c r="O95" s="3">
-        <v>992.36649999999997</v>
+        <v>992.36329999999998</v>
       </c>
       <c r="P95" s="3">
-        <v>46.90444591</v>
+        <v>46.904424200000001</v>
       </c>
       <c r="Q95" s="3">
-        <v>-91.035976959999999</v>
+        <v>-91.035984409999998</v>
       </c>
       <c r="R95" s="3"/>
     </row>
     <row r="96" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
-        <v>45119.468506944446</v>
+        <v>45119.46875</v>
       </c>
       <c r="B96" s="3">
-        <v>1855.8130000000001</v>
+        <v>1853.4849999999999</v>
       </c>
       <c r="C96" s="3">
-        <v>6.288977</v>
+        <v>6.1994090000000002</v>
       </c>
       <c r="D96" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E96" s="3">
-        <v>6.3918470000000005E-2</v>
+        <v>6.4030599999999993E-2</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0.99866180000000004</v>
+        <v>0.9986758</v>
       </c>
       <c r="H96" s="5">
-        <v>4.1547810000000003E-5</v>
+        <v>4.1619889999999997E-5</v>
       </c>
       <c r="I96" s="3">
-        <v>0.54059959999999996</v>
+        <v>0.38744600000000001</v>
       </c>
       <c r="J96" s="3">
-        <v>17.651700000000002</v>
+        <v>17.5761</v>
       </c>
       <c r="K96" s="3">
-        <v>11.51516</v>
+        <v>15.63339</v>
       </c>
       <c r="L96" s="3">
-        <v>27.188790000000001</v>
+        <v>36.687159999999999</v>
       </c>
       <c r="M96" s="3">
-        <v>8.0959620000000001</v>
+        <v>11.0061</v>
       </c>
       <c r="N96" s="3">
-        <v>0.81929870000000005</v>
+        <v>0.81039130000000004</v>
       </c>
       <c r="O96" s="3">
-        <v>992.36369999999999</v>
+        <v>992.36149999999998</v>
       </c>
       <c r="P96" s="3">
-        <v>46.90444591</v>
+        <v>46.904424200000001</v>
       </c>
       <c r="Q96" s="3">
-        <v>-91.035976959999999</v>
+        <v>-91.035984409999998</v>
       </c>
       <c r="R96" s="3"/>
     </row>
     <row r="97" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
-        <v>45119.468518518515</v>
+        <v>45119.468761574077</v>
       </c>
       <c r="B97" s="3">
-        <v>2260.96</v>
+        <v>1246.077</v>
       </c>
       <c r="C97" s="3">
-        <v>6.2711240000000004</v>
+        <v>6.2516360000000004</v>
       </c>
       <c r="D97" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E97" s="3">
-        <v>6.3933149999999994E-2</v>
+        <v>6.4031469999999993E-2</v>
       </c>
       <c r="F97" s="3">
         <v>0</v>
       </c>
       <c r="G97" s="3">
-        <v>0.99866359999999998</v>
+        <v>0.99867589999999995</v>
       </c>
       <c r="H97" s="5">
-        <v>4.1556990000000001E-5</v>
+        <v>4.1620450000000002E-5</v>
       </c>
       <c r="I97" s="3">
-        <v>0.5058163</v>
+        <v>0.48275050000000003</v>
       </c>
       <c r="J97" s="3">
-        <v>17.639710000000001</v>
+        <v>17.570969999999999</v>
       </c>
       <c r="K97" s="3">
-        <v>11.9049</v>
+        <v>15.876480000000001</v>
       </c>
       <c r="L97" s="3">
-        <v>28.087440000000001</v>
+        <v>37.24774</v>
       </c>
       <c r="M97" s="3">
-        <v>8.4333349999999996</v>
+        <v>11.171010000000001</v>
       </c>
       <c r="N97" s="3">
-        <v>0.83478839999999999</v>
+        <v>0.81026710000000002</v>
       </c>
       <c r="O97" s="3">
-        <v>992.41380000000004</v>
+        <v>992.36950000000002</v>
       </c>
       <c r="P97" s="3">
-        <v>46.90444591</v>
+        <v>46.904424200000001</v>
       </c>
       <c r="Q97" s="3">
-        <v>-91.035976959999999</v>
+        <v>-91.035984409999998</v>
       </c>
       <c r="R97" s="3"/>
     </row>
     <row r="98" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
-        <v>45119.468530092592</v>
+        <v>45119.468773148146</v>
       </c>
       <c r="B98" s="3">
-        <v>2276.2429999999999</v>
+        <v>1213.9000000000001</v>
       </c>
       <c r="C98" s="3">
-        <v>6.2714369999999997</v>
+        <v>6.2565080000000002</v>
       </c>
       <c r="D98" s="3">
         <v>5.4945059999999997E-2</v>
       </c>
       <c r="E98" s="3">
-        <v>6.3934389999999994E-2</v>
+        <v>6.4032119999999998E-2</v>
       </c>
       <c r="F98" s="3">
         <v>0</v>
       </c>
       <c r="G98" s="3">
-        <v>0.99866370000000004</v>
+        <v>0.99867600000000001</v>
       </c>
       <c r="H98" s="5">
-        <v>4.1557519999999998E-5</v>
+        <v>4.1620869999999998E-5</v>
       </c>
       <c r="I98" s="3">
-        <v>0.5031523</v>
+        <v>0.48677510000000002</v>
       </c>
       <c r="J98" s="3">
-        <v>17.638780000000001</v>
+        <v>17.570360000000001</v>
       </c>
       <c r="K98" s="3">
-        <v>11.933339999999999</v>
+        <v>15.90845</v>
       </c>
       <c r="L98" s="3">
-        <v>28.153009999999998</v>
+        <v>37.321480000000001</v>
       </c>
       <c r="M98" s="3">
-        <v>8.4566549999999996</v>
+        <v>11.187569999999999</v>
       </c>
       <c r="N98" s="3">
-        <v>0.83542930000000004</v>
+        <v>0.81008610000000003</v>
       </c>
       <c r="O98" s="3">
-        <v>992.41499999999996</v>
+        <v>992.36919999999998</v>
       </c>
       <c r="P98" s="3">
-        <v>46.90444591</v>
+        <v>46.904424200000001</v>
       </c>
       <c r="Q98" s="3">
-        <v>-91.035976959999999</v>
+        <v>-91.035984409999998</v>
       </c>
       <c r="R98" s="3"/>
-    </row>
-    <row r="99" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A99" s="4">
-        <v>45119.468541666669</v>
-      </c>
-      <c r="B99" s="3">
-        <v>2291.5259999999998</v>
-      </c>
-      <c r="C99" s="3">
-        <v>6.2717489999999998</v>
-      </c>
-      <c r="D99" s="3">
-        <v>5.4945059999999997E-2</v>
-      </c>
-      <c r="E99" s="3">
-        <v>6.3935619999999999E-2</v>
-      </c>
-      <c r="F99" s="3">
-        <v>0</v>
-      </c>
-      <c r="G99" s="3">
-        <v>0.99866379999999999</v>
-      </c>
-      <c r="H99" s="5">
-        <v>4.155804E-5</v>
-      </c>
-      <c r="I99" s="3">
-        <v>0.50048820000000005</v>
-      </c>
-      <c r="J99" s="3">
-        <v>17.63786</v>
-      </c>
-      <c r="K99" s="3">
-        <v>11.96177</v>
-      </c>
-      <c r="L99" s="3">
-        <v>28.21857</v>
-      </c>
-      <c r="M99" s="3">
-        <v>8.4799740000000003</v>
-      </c>
-      <c r="N99" s="3">
-        <v>0.83607010000000004</v>
-      </c>
-      <c r="O99" s="3">
-        <v>992.41610000000003</v>
-      </c>
-      <c r="P99" s="3">
-        <v>46.90444591</v>
-      </c>
-      <c r="Q99" s="3">
-        <v>-91.035976959999999</v>
-      </c>
-      <c r="R99" s="3"/>
-    </row>
-    <row r="100" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A100" s="4">
-        <v>45119.468553240738</v>
-      </c>
-      <c r="B100" s="3">
-        <v>3418.8090000000002</v>
-      </c>
-      <c r="C100" s="3">
-        <v>6.2974410000000001</v>
-      </c>
-      <c r="D100" s="3">
-        <v>5.4945059999999997E-2</v>
-      </c>
-      <c r="E100" s="3">
-        <v>6.3947519999999994E-2</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0.99866529999999998</v>
-      </c>
-      <c r="H100" s="5">
-        <v>4.1565890000000001E-5</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0.48631410000000003</v>
-      </c>
-      <c r="J100" s="3">
-        <v>17.629670000000001</v>
-      </c>
-      <c r="K100" s="3">
-        <v>12.50836</v>
-      </c>
-      <c r="L100" s="3">
-        <v>29.479199999999999</v>
-      </c>
-      <c r="M100" s="3">
-        <v>8.8019909999999992</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0.82866479999999998</v>
-      </c>
-      <c r="O100" s="3">
-        <v>992.40060000000005</v>
-      </c>
-      <c r="P100" s="3">
-        <v>46.90444591</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>-91.035976959999999</v>
-      </c>
-      <c r="R100" s="3"/>
-    </row>
-    <row r="101" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A101" s="4">
-        <v>45119.468564814815</v>
-      </c>
-      <c r="B101" s="3">
-        <v>3487.8470000000002</v>
-      </c>
-      <c r="C101" s="3">
-        <v>6.2984600000000004</v>
-      </c>
-      <c r="D101" s="3">
-        <v>5.4945059999999997E-2</v>
-      </c>
-      <c r="E101" s="3">
-        <v>6.3948469999999993E-2</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0.99866549999999998</v>
-      </c>
-      <c r="H101" s="5">
-        <v>4.1566510000000003E-5</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0.48484909999999998</v>
-      </c>
-      <c r="J101" s="3">
-        <v>17.628969999999999</v>
-      </c>
-      <c r="K101" s="3">
-        <v>12.546340000000001</v>
-      </c>
-      <c r="L101" s="3">
-        <v>29.566780000000001</v>
-      </c>
-      <c r="M101" s="3">
-        <v>8.8267229999999994</v>
-      </c>
-      <c r="N101" s="3">
-        <v>0.82859839999999996</v>
-      </c>
-      <c r="O101" s="3">
-        <v>992.4008</v>
-      </c>
-      <c r="P101" s="3">
-        <v>46.90444591</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>-91.035976959999999</v>
-      </c>
-      <c r="R101" s="3"/>
-    </row>
-    <row r="102" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A102" s="4">
-        <v>45119.468576388892</v>
-      </c>
-      <c r="B102" s="3">
-        <v>3556.884</v>
-      </c>
-      <c r="C102" s="3">
-        <v>6.2994789999999998</v>
-      </c>
-      <c r="D102" s="3">
-        <v>5.4945059999999997E-2</v>
-      </c>
-      <c r="E102" s="3">
-        <v>6.3949430000000002E-2</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0.99866560000000004</v>
-      </c>
-      <c r="H102" s="5">
-        <v>4.1567129999999999E-5</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0.48338419999999999</v>
-      </c>
-      <c r="J102" s="3">
-        <v>17.62828</v>
-      </c>
-      <c r="K102" s="3">
-        <v>12.58432</v>
-      </c>
-      <c r="L102" s="3">
-        <v>29.65437</v>
-      </c>
-      <c r="M102" s="3">
-        <v>8.8514549999999996</v>
-      </c>
-      <c r="N102" s="3">
-        <v>0.82853189999999999</v>
-      </c>
-      <c r="O102" s="3">
-        <v>992.40110000000004</v>
-      </c>
-      <c r="P102" s="3">
-        <v>46.90444591</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>-91.035976959999999</v>
-      </c>
-      <c r="R102" s="3"/>
-    </row>
-    <row r="103" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A103" s="4">
-        <v>45119.468587962961</v>
-      </c>
-      <c r="B103" s="3">
-        <v>3294.1019999999999</v>
-      </c>
-      <c r="C103" s="3">
-        <v>6.2026519999999996</v>
-      </c>
-      <c r="D103" s="3">
-        <v>5.4945059999999997E-2</v>
-      </c>
-      <c r="E103" s="3">
-        <v>6.3963039999999999E-2</v>
-      </c>
-      <c r="F103" s="3">
-        <v>0</v>
-      </c>
-      <c r="G103" s="3">
-        <v>0.99866730000000004</v>
-      </c>
-      <c r="H103" s="5">
-        <v>4.1575980000000002E-5</v>
-      </c>
-      <c r="I103" s="3">
-        <v>0.43864809999999999</v>
-      </c>
-      <c r="J103" s="3">
-        <v>17.618490000000001</v>
-      </c>
-      <c r="K103" s="3">
-        <v>12.905279999999999</v>
-      </c>
-      <c r="L103" s="3">
-        <v>30.394549999999999</v>
-      </c>
-      <c r="M103" s="3">
-        <v>9.0754870000000007</v>
-      </c>
-      <c r="N103" s="3">
-        <v>0.82826619999999995</v>
-      </c>
-      <c r="O103" s="3">
-        <v>992.43499999999995</v>
-      </c>
-      <c r="P103" s="3">
-        <v>46.90444591</v>
-      </c>
-      <c r="Q103" s="3">
-        <v>-91.035976959999999</v>
-      </c>
-      <c r="R103" s="3"/>
-    </row>
-    <row r="104" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A104" s="4">
-        <v>45119.468599537038</v>
-      </c>
-      <c r="B104" s="3">
-        <v>3304.6350000000002</v>
-      </c>
-      <c r="C104" s="3">
-        <v>6.1979829999999998</v>
-      </c>
-      <c r="D104" s="3">
-        <v>5.4945059999999997E-2</v>
-      </c>
-      <c r="E104" s="3">
-        <v>6.3964049999999995E-2</v>
-      </c>
-      <c r="F104" s="3">
-        <v>0</v>
-      </c>
-      <c r="G104" s="3">
-        <v>0.99866739999999998</v>
-      </c>
-      <c r="H104" s="5">
-        <v>4.157663E-5</v>
-      </c>
-      <c r="I104" s="3">
-        <v>0.43590319999999999</v>
-      </c>
-      <c r="J104" s="3">
-        <v>17.61777</v>
-      </c>
-      <c r="K104" s="3">
-        <v>12.93477</v>
-      </c>
-      <c r="L104" s="3">
-        <v>30.462569999999999</v>
-      </c>
-      <c r="M104" s="3">
-        <v>9.0947680000000002</v>
-      </c>
-      <c r="N104" s="3">
-        <v>0.82808809999999999</v>
-      </c>
-      <c r="O104" s="3">
-        <v>992.43650000000002</v>
-      </c>
-      <c r="P104" s="3">
-        <v>46.90444591</v>
-      </c>
-      <c r="Q104" s="3">
-        <v>-91.035976959999999</v>
-      </c>
-      <c r="R104" s="3"/>
-    </row>
-    <row r="105" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A105" s="4">
-        <v>45119.468611111108</v>
-      </c>
-      <c r="B105" s="3">
-        <v>3315.1689999999999</v>
-      </c>
-      <c r="C105" s="3">
-        <v>6.193314</v>
-      </c>
-      <c r="D105" s="3">
-        <v>5.4945059999999997E-2</v>
-      </c>
-      <c r="E105" s="3">
-        <v>6.3965049999999996E-2</v>
-      </c>
-      <c r="F105" s="3">
-        <v>0</v>
-      </c>
-      <c r="G105" s="3">
-        <v>0.99866750000000004</v>
-      </c>
-      <c r="H105" s="5">
-        <v>4.1577279999999998E-5</v>
-      </c>
-      <c r="I105" s="3">
-        <v>0.43315819999999999</v>
-      </c>
-      <c r="J105" s="3">
-        <v>17.617059999999999</v>
-      </c>
-      <c r="K105" s="3">
-        <v>12.964259999999999</v>
-      </c>
-      <c r="L105" s="3">
-        <v>30.53059</v>
-      </c>
-      <c r="M105" s="3">
-        <v>9.1140489999999996</v>
-      </c>
-      <c r="N105" s="3">
-        <v>0.82791000000000003</v>
-      </c>
-      <c r="O105" s="3">
-        <v>992.43790000000001</v>
-      </c>
-      <c r="P105" s="3">
-        <v>46.90444591</v>
-      </c>
-      <c r="Q105" s="3">
-        <v>-91.035976959999999</v>
-      </c>
-      <c r="R105" s="3"/>
-    </row>
-    <row r="106" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A106" s="4">
-        <v>45119.468622685185</v>
-      </c>
-      <c r="B106" s="3">
-        <v>4296.9459999999999</v>
-      </c>
-      <c r="C106" s="3">
-        <v>6.1782130000000004</v>
-      </c>
-      <c r="D106" s="3">
-        <v>5.4945059999999997E-2</v>
-      </c>
-      <c r="E106" s="3">
-        <v>6.3975889999999994E-2</v>
-      </c>
-      <c r="F106" s="3">
-        <v>0</v>
-      </c>
-      <c r="G106" s="3">
-        <v>0.99866920000000003</v>
-      </c>
-      <c r="H106" s="5">
-        <v>4.1585789999999997E-5</v>
-      </c>
-      <c r="I106" s="3">
-        <v>0.46975640000000002</v>
-      </c>
-      <c r="J106" s="3">
-        <v>17.60943</v>
-      </c>
-      <c r="K106" s="3">
-        <v>13.687189999999999</v>
-      </c>
-      <c r="L106" s="3">
-        <v>32.198430000000002</v>
-      </c>
-      <c r="M106" s="3">
-        <v>9.6230530000000005</v>
-      </c>
-      <c r="N106" s="3">
-        <v>0.82024850000000005</v>
-      </c>
-      <c r="O106" s="3">
-        <v>992.42989999999998</v>
-      </c>
-      <c r="P106" s="3">
-        <v>46.90444591</v>
-      </c>
-      <c r="Q106" s="3">
-        <v>-91.035976959999999</v>
-      </c>
-      <c r="R106" s="3"/>
-    </row>
-    <row r="107" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A107" s="4">
-        <v>45119.468634259261</v>
-      </c>
-      <c r="B107" s="3">
-        <v>4343.71</v>
-      </c>
-      <c r="C107" s="3">
-        <v>6.1752200000000004</v>
-      </c>
-      <c r="D107" s="3">
-        <v>5.4945059999999997E-2</v>
-      </c>
-      <c r="E107" s="3">
-        <v>6.3976779999999997E-2</v>
-      </c>
-      <c r="F107" s="3">
-        <v>0</v>
-      </c>
-      <c r="G107" s="3">
-        <v>0.99866940000000004</v>
-      </c>
-      <c r="H107" s="5">
-        <v>4.1586450000000002E-5</v>
-      </c>
-      <c r="I107" s="3">
-        <v>0.47068690000000002</v>
-      </c>
-      <c r="J107" s="3">
-        <v>17.608799999999999</v>
-      </c>
-      <c r="K107" s="3">
-        <v>13.733219999999999</v>
-      </c>
-      <c r="L107" s="3">
-        <v>32.304600000000001</v>
-      </c>
-      <c r="M107" s="3">
-        <v>9.6554120000000001</v>
-      </c>
-      <c r="N107" s="3">
-        <v>0.81983499999999998</v>
-      </c>
-      <c r="O107" s="3">
-        <v>992.43020000000001</v>
-      </c>
-      <c r="P107" s="3">
-        <v>46.90444591</v>
-      </c>
-      <c r="Q107" s="3">
-        <v>-91.035976959999999</v>
-      </c>
-      <c r="R107" s="3"/>
-    </row>
-    <row r="108" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A108" s="4">
-        <v>45119.468645833331</v>
-      </c>
-      <c r="B108" s="3">
-        <v>4390.4750000000004</v>
-      </c>
-      <c r="C108" s="3">
-        <v>6.1722260000000002</v>
-      </c>
-      <c r="D108" s="3">
-        <v>5.4945059999999997E-2</v>
-      </c>
-      <c r="E108" s="3">
-        <v>6.397767E-2</v>
-      </c>
-      <c r="F108" s="3">
-        <v>0</v>
-      </c>
-      <c r="G108" s="3">
-        <v>0.99866949999999999</v>
-      </c>
-      <c r="H108" s="5">
-        <v>4.1587110000000001E-5</v>
-      </c>
-      <c r="I108" s="3">
-        <v>0.47161750000000002</v>
-      </c>
-      <c r="J108" s="3">
-        <v>17.608170000000001</v>
-      </c>
-      <c r="K108" s="3">
-        <v>13.77924</v>
-      </c>
-      <c r="L108" s="3">
-        <v>32.410780000000003</v>
-      </c>
-      <c r="M108" s="3">
-        <v>9.6877709999999997</v>
-      </c>
-      <c r="N108" s="3">
-        <v>0.81942159999999997</v>
-      </c>
-      <c r="O108" s="3">
-        <v>992.43060000000003</v>
-      </c>
-      <c r="P108" s="3">
-        <v>46.90444591</v>
-      </c>
-      <c r="Q108" s="3">
-        <v>-91.035976959999999</v>
-      </c>
-      <c r="R108" s="3"/>
-    </row>
-    <row r="109" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A109" s="4">
-        <v>45119.468657407408</v>
-      </c>
-      <c r="B109" s="3">
-        <v>4082.355</v>
-      </c>
-      <c r="C109" s="3">
-        <v>6.2288569999999996</v>
-      </c>
-      <c r="D109" s="3">
-        <v>5.4945059999999997E-2</v>
-      </c>
-      <c r="E109" s="3">
-        <v>6.3995640000000006E-2</v>
-      </c>
-      <c r="F109" s="3">
-        <v>0</v>
-      </c>
-      <c r="G109" s="3">
-        <v>0.99867150000000005</v>
-      </c>
-      <c r="H109" s="5">
-        <v>4.1597349999999999E-5</v>
-      </c>
-      <c r="I109" s="3">
-        <v>0.4731727</v>
-      </c>
-      <c r="J109" s="3">
-        <v>17.606560000000002</v>
-      </c>
-      <c r="K109" s="3">
-        <v>13.99282</v>
-      </c>
-      <c r="L109" s="3">
-        <v>32.902549999999998</v>
-      </c>
-      <c r="M109" s="3">
-        <v>9.8379340000000006</v>
-      </c>
-      <c r="N109" s="3">
-        <v>0.81927510000000003</v>
-      </c>
-      <c r="O109" s="3">
-        <v>992.40409999999997</v>
-      </c>
-      <c r="P109" s="3">
-        <v>46.90444591</v>
-      </c>
-      <c r="Q109" s="3">
-        <v>-91.035976959999999</v>
-      </c>
-      <c r="R109" s="3"/>
-    </row>
-    <row r="110" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A110" s="4">
-        <v>45119.468668981484</v>
-      </c>
-      <c r="B110" s="3">
-        <v>4087.2510000000002</v>
-      </c>
-      <c r="C110" s="3">
-        <v>6.2315610000000001</v>
-      </c>
-      <c r="D110" s="3">
-        <v>5.4945059999999997E-2</v>
-      </c>
-      <c r="E110" s="3">
-        <v>6.3996869999999997E-2</v>
-      </c>
-      <c r="F110" s="3">
-        <v>0</v>
-      </c>
-      <c r="G110" s="3">
-        <v>0.99867159999999999</v>
-      </c>
-      <c r="H110" s="5">
-        <v>4.1598089999999997E-5</v>
-      </c>
-      <c r="I110" s="3">
-        <v>0.47403289999999998</v>
-      </c>
-      <c r="J110" s="3">
-        <v>17.606300000000001</v>
-      </c>
-      <c r="K110" s="3">
-        <v>14.02046</v>
-      </c>
-      <c r="L110" s="3">
-        <v>32.966259999999998</v>
-      </c>
-      <c r="M110" s="3">
-        <v>9.8573660000000007</v>
-      </c>
-      <c r="N110" s="3">
-        <v>0.81909790000000005</v>
-      </c>
-      <c r="O110" s="3">
-        <v>992.40250000000003</v>
-      </c>
-      <c r="P110" s="3">
-        <v>46.90444591</v>
-      </c>
-      <c r="Q110" s="3">
-        <v>-91.035976959999999</v>
-      </c>
-      <c r="R110" s="3"/>
-    </row>
-    <row r="111" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A111" s="4">
-        <v>45119.468680555554</v>
-      </c>
-      <c r="B111" s="3">
-        <v>4092.1460000000002</v>
-      </c>
-      <c r="C111" s="3">
-        <v>6.2342639999999996</v>
-      </c>
-      <c r="D111" s="3">
-        <v>5.4945059999999997E-2</v>
-      </c>
-      <c r="E111" s="3">
-        <v>6.3998079999999999E-2</v>
-      </c>
-      <c r="F111" s="3">
-        <v>0</v>
-      </c>
-      <c r="G111" s="3">
-        <v>0.9986718</v>
-      </c>
-      <c r="H111" s="5">
-        <v>4.1598840000000002E-5</v>
-      </c>
-      <c r="I111" s="3">
-        <v>0.47489310000000001</v>
-      </c>
-      <c r="J111" s="3">
-        <v>17.60604</v>
-      </c>
-      <c r="K111" s="3">
-        <v>14.0481</v>
-      </c>
-      <c r="L111" s="3">
-        <v>33.029969999999999</v>
-      </c>
-      <c r="M111" s="3">
-        <v>9.8767980000000009</v>
-      </c>
-      <c r="N111" s="3">
-        <v>0.8189208</v>
-      </c>
-      <c r="O111" s="3">
-        <v>992.40089999999998</v>
-      </c>
-      <c r="P111" s="3">
-        <v>46.90444591</v>
-      </c>
-      <c r="Q111" s="3">
-        <v>-91.035976959999999</v>
-      </c>
-      <c r="R111" s="3"/>
-    </row>
-    <row r="112" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A112" s="4">
-        <v>45119.468692129631</v>
-      </c>
-      <c r="B112" s="3">
-        <v>2120.2829999999999</v>
-      </c>
-      <c r="C112" s="3">
-        <v>6.1157029999999999</v>
-      </c>
-      <c r="D112" s="3">
-        <v>5.4945059999999997E-2</v>
-      </c>
-      <c r="E112" s="3">
-        <v>6.3999799999999996E-2</v>
-      </c>
-      <c r="F112" s="3">
-        <v>0</v>
-      </c>
-      <c r="G112" s="3">
-        <v>0.99867189999999995</v>
-      </c>
-      <c r="H112" s="5">
-        <v>4.1599930000000003E-5</v>
-      </c>
-      <c r="I112" s="3">
-        <v>0.44915929999999998</v>
-      </c>
-      <c r="J112" s="3">
-        <v>17.594049999999999</v>
-      </c>
-      <c r="K112" s="3">
-        <v>14.613810000000001</v>
-      </c>
-      <c r="L112" s="3">
-        <v>34.33455</v>
-      </c>
-      <c r="M112" s="3">
-        <v>10.52664</v>
-      </c>
-      <c r="N112" s="3">
-        <v>0.81899999999999995</v>
-      </c>
-      <c r="O112" s="3">
-        <v>992.40060000000005</v>
-      </c>
-      <c r="P112" s="3">
-        <v>46.904434469999998</v>
-      </c>
-      <c r="Q112" s="3">
-        <v>-91.035981050000004</v>
-      </c>
-      <c r="R112" s="3"/>
-    </row>
-    <row r="113" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A113" s="4">
-        <v>45119.4687037037</v>
-      </c>
-      <c r="B113" s="3">
-        <v>2008.645</v>
-      </c>
-      <c r="C113" s="3">
-        <v>6.1106579999999999</v>
-      </c>
-      <c r="D113" s="3">
-        <v>5.4945059999999997E-2</v>
-      </c>
-      <c r="E113" s="3">
-        <v>6.4000310000000005E-2</v>
-      </c>
-      <c r="F113" s="3">
-        <v>0</v>
-      </c>
-      <c r="G113" s="3">
-        <v>0.998672</v>
-      </c>
-      <c r="H113" s="5">
-        <v>4.1600220000000003E-5</v>
-      </c>
-      <c r="I113" s="3">
-        <v>0.44781949999999998</v>
-      </c>
-      <c r="J113" s="3">
-        <v>17.59337</v>
-      </c>
-      <c r="K113" s="3">
-        <v>14.648849999999999</v>
-      </c>
-      <c r="L113" s="3">
-        <v>34.415349999999997</v>
-      </c>
-      <c r="M113" s="3">
-        <v>10.56466</v>
-      </c>
-      <c r="N113" s="3">
-        <v>0.81899999999999995</v>
-      </c>
-      <c r="O113" s="3">
-        <v>992.4</v>
-      </c>
-      <c r="P113" s="3">
-        <v>46.904434469999998</v>
-      </c>
-      <c r="Q113" s="3">
-        <v>-91.035981050000004</v>
-      </c>
-      <c r="R113" s="3"/>
-    </row>
-    <row r="114" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A114" s="4">
-        <v>45119.468715277777</v>
-      </c>
-      <c r="B114" s="3">
-        <v>1897.0070000000001</v>
-      </c>
-      <c r="C114" s="3">
-        <v>6.105613</v>
-      </c>
-      <c r="D114" s="3">
-        <v>5.4945059999999997E-2</v>
-      </c>
-      <c r="E114" s="3">
-        <v>6.4000810000000005E-2</v>
-      </c>
-      <c r="F114" s="3">
-        <v>0</v>
-      </c>
-      <c r="G114" s="3">
-        <v>0.99867209999999995</v>
-      </c>
-      <c r="H114" s="5">
-        <v>4.1600510000000003E-5</v>
-      </c>
-      <c r="I114" s="3">
-        <v>0.44647969999999998</v>
-      </c>
-      <c r="J114" s="3">
-        <v>17.592700000000001</v>
-      </c>
-      <c r="K114" s="3">
-        <v>14.6839</v>
-      </c>
-      <c r="L114" s="3">
-        <v>34.496139999999997</v>
-      </c>
-      <c r="M114" s="3">
-        <v>10.602690000000001</v>
-      </c>
-      <c r="N114" s="3">
-        <v>0.81899999999999995</v>
-      </c>
-      <c r="O114" s="3">
-        <v>992.39940000000001</v>
-      </c>
-      <c r="P114" s="3">
-        <v>46.904434469999998</v>
-      </c>
-      <c r="Q114" s="3">
-        <v>-91.035981050000004</v>
-      </c>
-      <c r="R114" s="3"/>
-    </row>
-    <row r="115" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A115" s="4">
-        <v>45119.468726851854</v>
-      </c>
-      <c r="B115" s="3">
-        <v>1934.087</v>
-      </c>
-      <c r="C115" s="3">
-        <v>6.1947770000000002</v>
-      </c>
-      <c r="D115" s="3">
-        <v>5.4945059999999997E-2</v>
-      </c>
-      <c r="E115" s="3">
-        <v>6.4027589999999995E-2</v>
-      </c>
-      <c r="F115" s="3">
-        <v>0</v>
-      </c>
-      <c r="G115" s="3">
-        <v>0.99867550000000005</v>
-      </c>
-      <c r="H115" s="5">
-        <v>4.1617940000000003E-5</v>
-      </c>
-      <c r="I115" s="3">
-        <v>0.39422210000000002</v>
-      </c>
-      <c r="J115" s="3">
-        <v>17.578199999999999</v>
-      </c>
-      <c r="K115" s="3">
-        <v>15.517860000000001</v>
-      </c>
-      <c r="L115" s="3">
-        <v>36.4206</v>
-      </c>
-      <c r="M115" s="3">
-        <v>10.94101</v>
-      </c>
-      <c r="N115" s="3">
-        <v>0.81123599999999996</v>
-      </c>
-      <c r="O115" s="3">
-        <v>992.36519999999996</v>
-      </c>
-      <c r="P115" s="3">
-        <v>46.904434469999998</v>
-      </c>
-      <c r="Q115" s="3">
-        <v>-91.035981050000004</v>
-      </c>
-      <c r="R115" s="3"/>
-    </row>
-    <row r="116" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A116" s="4">
-        <v>45119.468738425923</v>
-      </c>
-      <c r="B116" s="3">
-        <v>1893.7860000000001</v>
-      </c>
-      <c r="C116" s="3">
-        <v>6.1970929999999997</v>
-      </c>
-      <c r="D116" s="3">
-        <v>5.4945059999999997E-2</v>
-      </c>
-      <c r="E116" s="3">
-        <v>6.4029100000000005E-2</v>
-      </c>
-      <c r="F116" s="3">
-        <v>0</v>
-      </c>
-      <c r="G116" s="3">
-        <v>0.9986756</v>
-      </c>
-      <c r="H116" s="5">
-        <v>4.1618910000000003E-5</v>
-      </c>
-      <c r="I116" s="3">
-        <v>0.39083400000000001</v>
-      </c>
-      <c r="J116" s="3">
-        <v>17.57715</v>
-      </c>
-      <c r="K116" s="3">
-        <v>15.575620000000001</v>
-      </c>
-      <c r="L116" s="3">
-        <v>36.553879999999999</v>
-      </c>
-      <c r="M116" s="3">
-        <v>10.973549999999999</v>
-      </c>
-      <c r="N116" s="3">
-        <v>0.81081369999999997</v>
-      </c>
-      <c r="O116" s="3">
-        <v>992.36329999999998</v>
-      </c>
-      <c r="P116" s="3">
-        <v>46.904424200000001</v>
-      </c>
-      <c r="Q116" s="3">
-        <v>-91.035984409999998</v>
-      </c>
-      <c r="R116" s="3"/>
-    </row>
-    <row r="117" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A117" s="4">
-        <v>45119.46875</v>
-      </c>
-      <c r="B117" s="3">
-        <v>1853.4849999999999</v>
-      </c>
-      <c r="C117" s="3">
-        <v>6.1994090000000002</v>
-      </c>
-      <c r="D117" s="3">
-        <v>5.4945059999999997E-2</v>
-      </c>
-      <c r="E117" s="3">
-        <v>6.4030599999999993E-2</v>
-      </c>
-      <c r="F117" s="3">
-        <v>0</v>
-      </c>
-      <c r="G117" s="3">
-        <v>0.9986758</v>
-      </c>
-      <c r="H117" s="5">
-        <v>4.1619889999999997E-5</v>
-      </c>
-      <c r="I117" s="3">
-        <v>0.38744600000000001</v>
-      </c>
-      <c r="J117" s="3">
-        <v>17.5761</v>
-      </c>
-      <c r="K117" s="3">
-        <v>15.63339</v>
-      </c>
-      <c r="L117" s="3">
-        <v>36.687159999999999</v>
-      </c>
-      <c r="M117" s="3">
-        <v>11.0061</v>
-      </c>
-      <c r="N117" s="3">
-        <v>0.81039130000000004</v>
-      </c>
-      <c r="O117" s="3">
-        <v>992.36149999999998</v>
-      </c>
-      <c r="P117" s="3">
-        <v>46.904424200000001</v>
-      </c>
-      <c r="Q117" s="3">
-        <v>-91.035984409999998</v>
-      </c>
-      <c r="R117" s="3"/>
-    </row>
-    <row r="118" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A118" s="4">
-        <v>45119.468761574077</v>
-      </c>
-      <c r="B118" s="3">
-        <v>1246.077</v>
-      </c>
-      <c r="C118" s="3">
-        <v>6.2516360000000004</v>
-      </c>
-      <c r="D118" s="3">
-        <v>5.4945059999999997E-2</v>
-      </c>
-      <c r="E118" s="3">
-        <v>6.4031469999999993E-2</v>
-      </c>
-      <c r="F118" s="3">
-        <v>0</v>
-      </c>
-      <c r="G118" s="3">
-        <v>0.99867589999999995</v>
-      </c>
-      <c r="H118" s="5">
-        <v>4.1620450000000002E-5</v>
-      </c>
-      <c r="I118" s="3">
-        <v>0.48275050000000003</v>
-      </c>
-      <c r="J118" s="3">
-        <v>17.570969999999999</v>
-      </c>
-      <c r="K118" s="3">
-        <v>15.876480000000001</v>
-      </c>
-      <c r="L118" s="3">
-        <v>37.24774</v>
-      </c>
-      <c r="M118" s="3">
-        <v>11.171010000000001</v>
-      </c>
-      <c r="N118" s="3">
-        <v>0.81026710000000002</v>
-      </c>
-      <c r="O118" s="3">
-        <v>992.36950000000002</v>
-      </c>
-      <c r="P118" s="3">
-        <v>46.904424200000001</v>
-      </c>
-      <c r="Q118" s="3">
-        <v>-91.035984409999998</v>
-      </c>
-      <c r="R118" s="3"/>
-    </row>
-    <row r="119" spans="1:18" ht="17" x14ac:dyDescent="0.2">
-      <c r="A119" s="4">
-        <v>45119.468773148146</v>
-      </c>
-      <c r="B119" s="3">
-        <v>1213.9000000000001</v>
-      </c>
-      <c r="C119" s="3">
-        <v>6.2565080000000002</v>
-      </c>
-      <c r="D119" s="3">
-        <v>5.4945059999999997E-2</v>
-      </c>
-      <c r="E119" s="3">
-        <v>6.4032119999999998E-2</v>
-      </c>
-      <c r="F119" s="3">
-        <v>0</v>
-      </c>
-      <c r="G119" s="3">
-        <v>0.99867600000000001</v>
-      </c>
-      <c r="H119" s="5">
-        <v>4.1620869999999998E-5</v>
-      </c>
-      <c r="I119" s="3">
-        <v>0.48677510000000002</v>
-      </c>
-      <c r="J119" s="3">
-        <v>17.570360000000001</v>
-      </c>
-      <c r="K119" s="3">
-        <v>15.90845</v>
-      </c>
-      <c r="L119" s="3">
-        <v>37.321480000000001</v>
-      </c>
-      <c r="M119" s="3">
-        <v>11.187569999999999</v>
-      </c>
-      <c r="N119" s="3">
-        <v>0.81008610000000003</v>
-      </c>
-      <c r="O119" s="3">
-        <v>992.36919999999998</v>
-      </c>
-      <c r="P119" s="3">
-        <v>46.904424200000001</v>
-      </c>
-      <c r="Q119" s="3">
-        <v>-91.035984409999998</v>
-      </c>
-      <c r="R119" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
